--- a/data/results/results_one_sample_baseline.xlsx
+++ b/data/results/results_one_sample_baseline.xlsx
@@ -412,26 +412,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homovanillate_iso2</t>
+          <t>Paraxanthine</t>
         </is>
       </c>
       <c r="C2">
-        <v>1.049009705798999</v>
+        <v>7.613916815307219</v>
       </c>
       <c r="D2">
-        <v>0.328</v>
+        <v>0.00424</v>
       </c>
       <c r="E2">
-        <v>0.3105610334353218</v>
+        <v>8.609164356097972e-19</v>
       </c>
       <c r="F2">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G2">
-        <v>0.4841261562883209</v>
+        <v>2.372634143407268</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I2">
-        <v>0.9999984364784772</v>
+        <v>8.092614494732094e-17</v>
       </c>
     </row>
     <row r="3">
@@ -442,26 +447,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eicosenoic Acid</t>
+          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.7590382001604064</v>
+        <v>7.146515344467092</v>
       </c>
       <c r="D3">
-        <v>0.283</v>
+        <v>0.00524</v>
       </c>
       <c r="E3">
-        <v>0.3836056213746548</v>
+        <v>5.025346903258e-17</v>
       </c>
       <c r="F3">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G3">
-        <v>0.5482135644757098</v>
+        <v>2.280668713016273</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I3">
-        <v>0.9999984364784772</v>
+        <v>3.149217392708347e-15</v>
       </c>
     </row>
     <row r="4">
@@ -472,26 +482,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso1</t>
+          <t>Cortisol</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.6606872316782298</v>
+        <v>7.140831740064575</v>
       </c>
       <c r="D4">
-        <v>0.511</v>
+        <v>1.34e-05</v>
       </c>
       <c r="E4">
-        <v>0.641737490568418</v>
+        <v>1.597626582932245e-35</v>
       </c>
       <c r="F4">
-        <v>0.6690829090349851</v>
+        <v>0.0012596</v>
       </c>
       <c r="G4">
-        <v>0.2915790998652872</v>
+        <v>4.872895201635193</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I4">
-        <v>0.9999984364784772</v>
+        <v>3.003537975912621e-33</v>
       </c>
     </row>
     <row r="5">
@@ -502,26 +517,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cholate</t>
+          <t>Docosahexaenoic Acid (22:6 N?3)</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.6330072725754904</v>
+        <v>7.135527382551603</v>
       </c>
       <c r="D5">
-        <v>0.402</v>
+        <v>0.0251</v>
       </c>
       <c r="E5">
-        <v>0.5616583416166729</v>
+        <v>3.809149505234017e-12</v>
       </c>
       <c r="F5">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G5">
-        <v>0.3957739469155299</v>
+        <v>1.600326278518962</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I5">
-        <v>0.9999984364784772</v>
+        <v>1.790300267459988e-10</v>
       </c>
     </row>
     <row r="6">
@@ -532,26 +552,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
+          <t>Oleic Acid</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.5252974859842214</v>
+        <v>7.018850655381379</v>
       </c>
       <c r="D6">
-        <v>0.407</v>
+        <v>0.074</v>
       </c>
       <c r="E6">
-        <v>0.6236212776054714</v>
+        <v>1.156927954560916e-08</v>
       </c>
       <c r="F6">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G6">
-        <v>0.39040559077478</v>
+        <v>1.130768280269024</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I6">
-        <v>0.9999984364784772</v>
+        <v>1.208346974763623e-07</v>
       </c>
     </row>
     <row r="7">
@@ -562,26 +587,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso1</t>
+          <t>Cholate</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.4873624261665845</v>
+        <v>6.820110721547549</v>
       </c>
       <c r="D7">
-        <v>0.208</v>
+        <v>0.0257</v>
       </c>
       <c r="E7">
-        <v>0.465210697158632</v>
+        <v>1.430763480428913e-11</v>
       </c>
       <c r="F7">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G7">
-        <v>0.6819366650372385</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I7">
-        <v>0.9999984364784772</v>
+        <v>4.103644034403136e-10</v>
       </c>
     </row>
     <row r="8">
@@ -592,26 +622,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Indole-3-Acetate_[M+Na]+</t>
+          <t>Caffeine</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.4780863139626055</v>
+        <v>6.783310548179435</v>
       </c>
       <c r="D8">
-        <v>0.399</v>
+        <v>0.0244</v>
       </c>
       <c r="E8">
-        <v>0.6445113985884124</v>
+        <v>1.151236098217959e-11</v>
       </c>
       <c r="F8">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G8">
-        <v>0.3990271043132517</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I8">
-        <v>0.9999984364784772</v>
+        <v>4.103644034403136e-10</v>
       </c>
     </row>
     <row r="9">
@@ -622,26 +657,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Stearate</t>
+          <t>_Linolenic Acid (18:3 N?3)</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.4653328697664665</v>
+        <v>6.729216465925322</v>
       </c>
       <c r="D9">
-        <v>0.389</v>
+        <v>0.0247</v>
       </c>
       <c r="E9">
-        <v>0.6444512512422147</v>
+        <v>1.527952566001167e-11</v>
       </c>
       <c r="F9">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G9">
-        <v>0.4100503986742923</v>
+        <v>1.607303046740334</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I9">
-        <v>0.9999984364784772</v>
+        <v>4.103644034403136e-10</v>
       </c>
     </row>
     <row r="10">
@@ -652,26 +692,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paraxanthine</t>
+          <t>Palmitate</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.455404889152823</v>
+        <v>6.654297849295098</v>
       </c>
       <c r="D10">
-        <v>0.144</v>
+        <v>0.074</v>
       </c>
       <c r="E10">
-        <v>0.4137272857380903</v>
+        <v>2.989035441373392e-08</v>
       </c>
       <c r="F10">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G10">
-        <v>0.8416375079047503</v>
+        <v>1.130768280269024</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I10">
-        <v>0.9999984364784772</v>
+        <v>2.443211578166078e-07</v>
       </c>
     </row>
     <row r="11">
@@ -682,26 +727,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cortisol</t>
+          <t>Pregnenolone Sulfate</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.4414265093989932</v>
+        <v>6.601188907761294</v>
       </c>
       <c r="D11">
-        <v>0.0052</v>
+        <v>0.0278</v>
       </c>
       <c r="E11">
-        <v>0.09812582666535451</v>
+        <v>5.356064099321885e-11</v>
       </c>
       <c r="F11">
-        <v>0.4614003365581715</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G11">
-        <v>2.283996656365201</v>
+        <v>1.555955204081924</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I11">
-        <v>0.9999984364784772</v>
+        <v>1.118822278525016e-09</v>
       </c>
     </row>
     <row r="12">
@@ -712,26 +762,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Methionine_iso1</t>
+          <t>2-Hydroxybutyrate_iso2</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.4390407150561482</v>
+        <v>6.508472539085283</v>
       </c>
       <c r="D12">
-        <v>0.321</v>
+        <v>0.0242</v>
       </c>
       <c r="E12">
-        <v>0.6072053879444778</v>
+        <v>3.027657129189639e-11</v>
       </c>
       <c r="F12">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G12">
-        <v>0.4934949675951279</v>
+        <v>1.616184634019569</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I12">
-        <v>0.9999984364784772</v>
+        <v>7.114994253595652e-10</v>
       </c>
     </row>
     <row r="13">
@@ -742,26 +797,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glutarate</t>
+          <t>2-Hydroxybutyrate_iso1</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.4237580566575614</v>
+        <v>6.255386599880315</v>
       </c>
       <c r="D13">
-        <v>0.0983</v>
+        <v>0.0249</v>
       </c>
       <c r="E13">
-        <v>0.3741850539643975</v>
+        <v>9.281258889132601e-11</v>
       </c>
       <c r="F13">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G13">
-        <v>1.007446482167864</v>
+        <v>1.603800652904264</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I13">
-        <v>0.9999984364784772</v>
+        <v>1.744876671156929e-09</v>
       </c>
     </row>
     <row r="14">
@@ -772,26 +832,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pregnenolone Sulfate</t>
+          <t>Stearate</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.4178946257646474</v>
+        <v>6.001955761283379</v>
       </c>
       <c r="D14">
-        <v>0.302</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E14">
-        <v>0.6063141391430975</v>
+        <v>1.555814919225388e-07</v>
       </c>
       <c r="F14">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G14">
-        <v>0.5199930570428494</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I14">
-        <v>0.9999984364784772</v>
+        <v>1.124973864670665e-06</v>
       </c>
     </row>
     <row r="15">
@@ -802,26 +867,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso1</t>
+          <t>3-Hydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.3884805275970197</v>
+        <v>5.93372375196131</v>
       </c>
       <c r="D15">
-        <v>0.538</v>
+        <v>0.0736</v>
       </c>
       <c r="E15">
-        <v>0.7859848163322299</v>
+        <v>1.889582999946218e-07</v>
       </c>
       <c r="F15">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G15">
-        <v>0.2692177243336108</v>
+        <v>1.133122185662501</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I15">
-        <v>0.9999984364784772</v>
+        <v>1.268720014249604e-06</v>
       </c>
     </row>
     <row r="16">
@@ -832,26 +902,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Palmitate</t>
+          <t>Eicosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.3835954962604435</v>
+        <v>5.790277398563593</v>
       </c>
       <c r="D16">
-        <v>0.573</v>
+        <v>0.0266</v>
       </c>
       <c r="E16">
-        <v>0.8076611670758285</v>
+        <v>7.579276319317047e-10</v>
       </c>
       <c r="F16">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G16">
-        <v>0.2418453780326101</v>
+        <v>1.575118363368933</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I16">
-        <v>0.9999984364784772</v>
+        <v>1.096079960024311e-08</v>
       </c>
     </row>
     <row r="17">
@@ -862,26 +937,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3-Methylglutaconate</t>
+          <t>Palmitoleic Acid</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.3760695275576711</v>
+        <v>5.73309193763096</v>
       </c>
       <c r="D17">
-        <v>0.335</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="E17">
-        <v>0.6628020224981754</v>
+        <v>3.264634389626426e-07</v>
       </c>
       <c r="F17">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G17">
-        <v>0.4749551929631547</v>
+        <v>1.131355561605174</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I17">
-        <v>0.9999984364784772</v>
+        <v>2.04583755083256e-06</v>
       </c>
     </row>
     <row r="18">
@@ -892,26 +972,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>_Linolenic Acid (18:3 N?3)</t>
+          <t>Arachidonic Acid</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.3642146668762858</v>
+        <v>5.647666403920644</v>
       </c>
       <c r="D18">
-        <v>0.268</v>
+        <v>0.0723</v>
       </c>
       <c r="E18">
-        <v>0.6190394186282151</v>
+        <v>3.604073922314784e-07</v>
       </c>
       <c r="F18">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G18">
-        <v>0.5718652059712112</v>
+        <v>1.140861702705469</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I18">
-        <v>0.9999984364784772</v>
+        <v>2.185696443210256e-06</v>
       </c>
     </row>
     <row r="19">
@@ -922,26 +1007,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Caffeine</t>
+          <t>Lauric Acid</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.3616848915958401</v>
+        <v>5.572517212941896</v>
       </c>
       <c r="D19">
-        <v>0.374</v>
+        <v>0.0244</v>
       </c>
       <c r="E19">
-        <v>0.7006709497415872</v>
+        <v>1.032053116218748e-09</v>
       </c>
       <c r="F19">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G19">
-        <v>0.4271283977995198</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I19">
-        <v>0.9999984364784772</v>
+        <v>1.385899898922318e-08</v>
       </c>
     </row>
     <row r="20">
@@ -952,26 +1042,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Oleic Acid</t>
+          <t>Myristic Acid_iso2</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.3607325232611213</v>
+        <v>5.553997834469278</v>
       </c>
       <c r="D20">
-        <v>0.547</v>
+        <v>0.029</v>
       </c>
       <c r="E20">
-        <v>0.8044211990301628</v>
+        <v>2.885106239883132e-09</v>
       </c>
       <c r="F20">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G20">
-        <v>0.2620126736665692</v>
+        <v>1.537602002101044</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I20">
-        <v>0.9999984364784772</v>
+        <v>3.38999983186268e-08</v>
       </c>
     </row>
     <row r="21">
@@ -982,26 +1077,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adrenic Acid (22:4 N?6)</t>
+          <t>Chenodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.3400042356362684</v>
+        <v>5.176937629674414</v>
       </c>
       <c r="D21">
-        <v>0.482</v>
+        <v>0.0286</v>
       </c>
       <c r="E21">
-        <v>0.7802515687253235</v>
+        <v>1.020242076176784e-08</v>
       </c>
       <c r="F21">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G21">
-        <v>0.3169529617611505</v>
+        <v>1.543633966870957</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I21">
-        <v>0.9999984364784772</v>
+        <v>1.128267707771973e-07</v>
       </c>
     </row>
     <row r="22">
@@ -1012,26 +1112,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lauric Acid</t>
+          <t>Urate_iso2</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.338538209890111</v>
+        <v>5.089853501372243</v>
       </c>
       <c r="D22">
-        <v>0.172</v>
+        <v>0.0733</v>
       </c>
       <c r="E22">
-        <v>0.5510578188701242</v>
+        <v>1.673190891217499e-06</v>
       </c>
       <c r="F22">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G22">
-        <v>0.7644715530924511</v>
+        <v>1.134896025358872</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I22">
-        <v>0.9999984364784772</v>
+        <v>8.166107369148611e-06</v>
       </c>
     </row>
     <row r="23">
@@ -1042,26 +1147,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone (Dhea)</t>
+          <t>Eicosenoic Acid</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.3070123728716865</v>
+        <v>5.050531443681261</v>
       </c>
       <c r="D23">
-        <v>0.354</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E23">
-        <v>0.7270067134551065</v>
+        <v>1.694032911685084e-06</v>
       </c>
       <c r="F23">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G23">
-        <v>0.4509967379742122</v>
+        <v>1.142667503568731</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I23">
-        <v>0.9999984364784772</v>
+        <v>8.166107369148611e-06</v>
       </c>
     </row>
     <row r="24">
@@ -1072,26 +1182,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Testosterone</t>
+          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.2905117163459421</v>
+        <v>5.026650267884104</v>
       </c>
       <c r="D24">
-        <v>0.244</v>
+        <v>0.0127</v>
       </c>
       <c r="E24">
-        <v>0.6637882599204382</v>
+        <v>2.940928499566954e-10</v>
       </c>
       <c r="F24">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G24">
-        <v>0.6126101736612706</v>
+        <v>1.896196279044043</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I24">
-        <v>0.9999984364784772</v>
+        <v>4.607454649321561e-09</v>
       </c>
     </row>
     <row r="25">
@@ -1102,26 +1217,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Heptadec-10-Enoic Acid</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.254542283668342</v>
+        <v>5.02583180074794</v>
       </c>
       <c r="D25">
-        <v>0.666</v>
+        <v>0.0746</v>
       </c>
       <c r="E25">
-        <v>0.9017096701268972</v>
+        <v>2.160602883535618e-06</v>
       </c>
       <c r="F25">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G25">
-        <v>0.1765257708296989</v>
+        <v>1.127261172527331</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I25">
-        <v>0.9999984364784772</v>
+        <v>9.671270050111814e-06</v>
       </c>
     </row>
     <row r="26">
@@ -1132,26 +1252,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>Citrate_iso1</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.2511768804643922</v>
+        <v>5.01755766550732</v>
       </c>
       <c r="D26">
-        <v>0.661</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E26">
-        <v>0.9012364817068582</v>
+        <v>2.035000734987392e-06</v>
       </c>
       <c r="F26">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G26">
-        <v>0.1797985405143598</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I26">
-        <v>0.9999984364784772</v>
+        <v>9.331222882381211e-06</v>
       </c>
     </row>
     <row r="27">
@@ -1162,26 +1287,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso1</t>
+          <t>Glutamate Acid</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.2497347800883342</v>
+        <v>4.855085081737017</v>
       </c>
       <c r="D27">
-        <v>0.749</v>
+        <v>0.0241</v>
       </c>
       <c r="E27">
-        <v>0.9303658147434167</v>
+        <v>1.394938564331836e-08</v>
       </c>
       <c r="F27">
-        <v>0.6817321246130508</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G27">
-        <v>0.1255181823005335</v>
+        <v>1.617982957425132</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I27">
-        <v>0.9999984364784772</v>
+        <v>1.352731215220371e-07</v>
       </c>
     </row>
     <row r="28">
@@ -1192,26 +1322,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso2</t>
+          <t>Deoxycholate</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.2260248161045095</v>
+        <v>4.830482341552808</v>
       </c>
       <c r="D28">
-        <v>0.483</v>
+        <v>0.0238</v>
       </c>
       <c r="E28">
-        <v>0.8483287945104928</v>
+        <v>1.439075760872735e-08</v>
       </c>
       <c r="F28">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G28">
-        <v>0.3160528692484879</v>
+        <v>1.623423042943488</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I28">
-        <v>0.9999984364784772</v>
+        <v>1.352731215220371e-07</v>
       </c>
     </row>
     <row r="29">
@@ -1222,26 +1357,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Biliverdin_iso1</t>
+          <t>Citrate_iso2</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.2166380332058826</v>
+        <v>4.825930251491923</v>
       </c>
       <c r="D29">
-        <v>0.672</v>
+        <v>0.0733</v>
       </c>
       <c r="E29">
-        <v>0.917490590260275</v>
+        <v>3.334808800506893e-06</v>
       </c>
       <c r="F29">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G29">
-        <v>0.1726307269461747</v>
+        <v>1.134896025358872</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I29">
-        <v>0.9999984364784772</v>
+        <v>1.458009429058828e-05</v>
       </c>
     </row>
     <row r="30">
@@ -1252,26 +1392,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Docosahexaenoic Acid (22:6 N?3)</t>
+          <t>Hexanoylcarnitine</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.2063485051469377</v>
+        <v>4.730574361776496</v>
       </c>
       <c r="D30">
-        <v>0.66</v>
+        <v>0.0241</v>
       </c>
       <c r="E30">
-        <v>0.9178319274163593</v>
+        <v>2.218254155750568e-08</v>
       </c>
       <c r="F30">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G30">
-        <v>0.1804560644581313</v>
+        <v>1.617982957425132</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I30">
-        <v>0.9999984364784772</v>
+        <v>1.985865625148128e-07</v>
       </c>
     </row>
     <row r="31">
@@ -1282,26 +1427,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2,6-Dihydroxypyridine</t>
+          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.2035704594403627</v>
+        <v>4.709509647110901</v>
       </c>
       <c r="D31">
-        <v>0.53</v>
+        <v>0.0725</v>
       </c>
       <c r="E31">
-        <v>0.8787608739383834</v>
+        <v>4.292900746092186e-06</v>
       </c>
       <c r="F31">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G31">
-        <v>0.275724130399211</v>
+        <v>1.139661993429006</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I31">
-        <v>0.9999984364784772</v>
+        <v>1.834239409693934e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1312,26 +1462,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6-Carboxyhexanoate</t>
+          <t>Methionine_iso1</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.1992952557002517</v>
+        <v>4.616136217799277</v>
       </c>
       <c r="D32">
-        <v>0.121</v>
+        <v>0.0232</v>
       </c>
       <c r="E32">
-        <v>0.6564527558039311</v>
+        <v>2.850164251724535e-08</v>
       </c>
       <c r="F32">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G32">
-        <v>0.9172146296835499</v>
+        <v>1.6345120151091</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I32">
-        <v>0.9999984364784772</v>
+        <v>2.435594906019148e-07</v>
       </c>
     </row>
     <row r="33">
@@ -1342,26 +1497,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
+          <t>Adrenic Acid (22:4 N?6)</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.1981171537306947</v>
+        <v>4.607787799957968</v>
       </c>
       <c r="D33">
-        <v>0.415</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E33">
-        <v>0.8400957275942744</v>
+        <v>5.224979672078929e-06</v>
       </c>
       <c r="F33">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G33">
-        <v>0.3819519032879073</v>
+        <v>1.146301788223826</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I33">
-        <v>0.9999984364784772</v>
+        <v>2.135426474675736e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1372,26 +1532,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2-Hydroxylauric Acid</t>
+          <t>Glutarate</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.1836991943831867</v>
+        <v>4.564165385935318</v>
       </c>
       <c r="D34">
-        <v>0.479</v>
+        <v>0.0072</v>
       </c>
       <c r="E34">
-        <v>0.8735301339824384</v>
+        <v>1.661541322495766e-10</v>
       </c>
       <c r="F34">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G34">
-        <v>0.3196644865854368</v>
+        <v>2.142667503568731</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I34">
-        <v>0.9999984364784772</v>
+        <v>2.8397251693564e-09</v>
       </c>
     </row>
     <row r="35">
@@ -1402,26 +1567,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5,8-Tetradecandienoylcarnitine</t>
+          <t>Urate_iso1</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.1714035428140561</v>
+        <v>4.519137262478633</v>
       </c>
       <c r="D35">
-        <v>0.618</v>
+        <v>0.0751</v>
       </c>
       <c r="E35">
-        <v>0.9208198741413443</v>
+        <v>8.295881557211628e-06</v>
       </c>
       <c r="F35">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G35">
-        <v>0.2090115249111842</v>
+        <v>1.124360062995832</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I35">
-        <v>0.9999984364784772</v>
+        <v>3.182909658685278e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1432,26 +1602,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Arachidonic Acid</t>
+          <t>Linoleic Acid (18:2 N?6)</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.1690220695061246</v>
+        <v>4.513014997142523</v>
       </c>
       <c r="D36">
-        <v>0.697</v>
+        <v>0.171</v>
       </c>
       <c r="E36">
-        <v>0.9408120683602578</v>
+        <v>0.0003455412844915281</v>
       </c>
       <c r="F36">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G36">
-        <v>0.1567672219019906</v>
+        <v>0.7670038896078462</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I36">
-        <v>0.9999984364784772</v>
+        <v>0.0007553693195861312</v>
       </c>
     </row>
     <row r="37">
@@ -1462,26 +1637,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Oleoylcarnitine_[M+Na]+</t>
+          <t>2-Hydroxylauric Acid</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.1435882008549057</v>
+        <v>4.489384080712048</v>
       </c>
       <c r="D37">
-        <v>0.518</v>
+        <v>0.0258</v>
       </c>
       <c r="E37">
-        <v>0.9098737257322694</v>
+        <v>7.398621221620497e-08</v>
       </c>
       <c r="F37">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G37">
-        <v>0.2856702402547669</v>
+        <v>1.58838029403677</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I37">
-        <v>0.9999984364784772</v>
+        <v>5.563763158658614e-07</v>
       </c>
     </row>
     <row r="38">
@@ -1492,26 +1672,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Eicosapentaenoic Acid</t>
+          <t>2,6-Dihydroxypyridine</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.1378494738279876</v>
+        <v>4.481274919507809</v>
       </c>
       <c r="D38">
-        <v>0.695</v>
+        <v>0.0238</v>
       </c>
       <c r="E38">
-        <v>0.9510814001292546</v>
+        <v>5.308783736799421e-08</v>
       </c>
       <c r="F38">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G38">
-        <v>0.1580151954098861</v>
+        <v>1.623423042943488</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I38">
-        <v>0.9999984364784772</v>
+        <v>4.15854726049288e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1522,26 +1707,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pregnanediol-3-Glucuronide</t>
+          <t>O-Acetylcarnitine</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.1312673474808849</v>
+        <v>4.455106623566262</v>
       </c>
       <c r="D39">
-        <v>0.593</v>
+        <v>0.0718</v>
       </c>
       <c r="E39">
-        <v>0.9337045852993791</v>
+        <v>8.015164406653559e-06</v>
       </c>
       <c r="F39">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G39">
-        <v>0.2269453066357374</v>
+        <v>1.1438755557577</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I39">
-        <v>0.9999984364784772</v>
+        <v>3.139272725939311e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1552,26 +1742,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.1287528533105858</v>
+        <v>4.408376982840539</v>
       </c>
       <c r="D40">
-        <v>0.323</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E40">
-        <v>0.8645864489362983</v>
+        <v>9.176791790288157e-06</v>
       </c>
       <c r="F40">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G40">
-        <v>0.4907974776688971</v>
+        <v>1.142667503568731</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I40">
-        <v>0.9999984364784772</v>
+        <v>3.33103550251591e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1582,26 +1777,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Biliverdin_iso2</t>
+          <t>Oleoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.1261898745457181</v>
+        <v>4.395218468354607</v>
       </c>
       <c r="D41">
-        <v>0.726</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="E41">
-        <v>0.960398801923016</v>
+        <v>9.21350245376741e-06</v>
       </c>
       <c r="F41">
-        <v>0.6774650506187275</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G41">
-        <v>0.1390633792999063</v>
+        <v>1.145693958198919</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I41">
-        <v>0.9999984364784772</v>
+        <v>3.33103550251591e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1612,26 +1812,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Trans-2-Dodecenoylcarnitine</t>
+          <t>Itaconate_iso2</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.1232308160993392</v>
+        <v>4.34206337891494</v>
       </c>
       <c r="D42">
-        <v>0.755</v>
+        <v>0.0723</v>
       </c>
       <c r="E42">
-        <v>0.9659603567782511</v>
+        <v>1.112515781323646e-05</v>
       </c>
       <c r="F42">
-        <v>0.6817321246130508</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G42">
-        <v>0.1220530483708118</v>
+        <v>1.140861702705469</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I42">
-        <v>0.9999984364784772</v>
+        <v>3.873203090534174e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1642,26 +1847,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Idp (Inosine 5'-Diphosphate)</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.1205370193872742</v>
+        <v>4.340917618812183</v>
       </c>
       <c r="D43">
-        <v>0.569</v>
+        <v>0.172</v>
       </c>
       <c r="E43">
-        <v>0.9342905636894507</v>
+        <v>0.000480277195635617</v>
       </c>
       <c r="F43">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G43">
-        <v>0.2448877336049289</v>
+        <v>0.7644715530924511</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I43">
-        <v>0.9999984364784772</v>
+        <v>0.001014518121117933</v>
       </c>
     </row>
     <row r="44">
@@ -1672,26 +1882,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Biliverdin_[M+Na]+</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.1174577548745155</v>
+        <v>4.304190176058448</v>
       </c>
       <c r="D44">
-        <v>0.795</v>
+        <v>0.0271</v>
       </c>
       <c r="E44">
-        <v>0.9734134586739889</v>
+        <v>1.799707042854382e-07</v>
       </c>
       <c r="F44">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G44">
-        <v>0.09963287134352969</v>
+        <v>1.567030709125594</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I44">
-        <v>0.9999984364784772</v>
+        <v>1.253129348357866e-06</v>
       </c>
     </row>
     <row r="45">
@@ -1702,26 +1917,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Succinate_iso1</t>
+          <t>Decanoylcarnitine</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.1111313425393547</v>
+        <v>4.284689805490046</v>
       </c>
       <c r="D45">
-        <v>0.6860000000000001</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E45">
-        <v>0.9589820522350598</v>
+        <v>1.225892573221567e-05</v>
       </c>
       <c r="F45">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G45">
-        <v>0.1636758842932483</v>
+        <v>1.146301788223826</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I45">
-        <v>0.9999984364784772</v>
+        <v>4.190323704830084e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1732,26 +1952,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Deoxycholate</t>
+          <t>Heptadec-10-Enoic Acid</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.1099991818652955</v>
+        <v>4.279931447380632</v>
       </c>
       <c r="D46">
-        <v>0.554</v>
+        <v>0.0718</v>
       </c>
       <c r="E46">
-        <v>0.9371007467651528</v>
+        <v>1.271425849936594e-05</v>
       </c>
       <c r="F46">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G46">
-        <v>0.2564902352715702</v>
+        <v>1.1438755557577</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I46">
-        <v>0.9999984364784772</v>
+        <v>4.268358210501423e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1762,26 +1987,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Xanthine</t>
+          <t>Nervonate</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.1059498545408705</v>
+        <v>4.199607272451702</v>
       </c>
       <c r="D47">
-        <v>0.495</v>
+        <v>0.0326</v>
       </c>
       <c r="E47">
-        <v>0.9282040632949446</v>
+        <v>5.702927108122041e-07</v>
       </c>
       <c r="F47">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G47">
-        <v>0.3053948010664313</v>
+        <v>1.486782399932061</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I47">
-        <v>0.9999984364784772</v>
+        <v>3.153383224491011e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1792,26 +2022,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Palmitoleic Acid</t>
+          <t>Kynurenine</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.1010184834450753</v>
+        <v>4.169914638542217</v>
       </c>
       <c r="D48">
-        <v>0.882</v>
+        <v>0.0248</v>
       </c>
       <c r="E48">
-        <v>0.9873958991348163</v>
+        <v>2.018368970863803e-07</v>
       </c>
       <c r="F48">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G48">
-        <v>0.05453141486818026</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I48">
-        <v>0.9999984364784772</v>
+        <v>1.308459884559983e-06</v>
       </c>
     </row>
     <row r="49">
@@ -1822,26 +2057,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Adipate_iso1</t>
+          <t>2-Hydroxyoctanoic Acid_iso1</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.09732343871323053</v>
+        <v>4.097413590528305</v>
       </c>
       <c r="D49">
-        <v>0.678</v>
+        <v>0.0305</v>
       </c>
       <c r="E49">
-        <v>0.9628856035357833</v>
+        <v>6.159558192409928e-07</v>
       </c>
       <c r="F49">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G49">
-        <v>0.1687703061329366</v>
+        <v>1.515700160653214</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I49">
-        <v>0.9999984364784772</v>
+        <v>3.308562686208761e-06</v>
       </c>
     </row>
     <row r="50">
@@ -1852,26 +2092,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso2</t>
+          <t>Pregnanediol-3-Glucuronide</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.0945280450439645</v>
+        <v>4.031249496553992</v>
       </c>
       <c r="D50">
-        <v>0.614</v>
+        <v>0.0731</v>
       </c>
       <c r="E50">
-        <v>0.9549397472139127</v>
+        <v>2.631282623984133e-05</v>
       </c>
       <c r="F50">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G50">
-        <v>0.2118316288588323</v>
+        <v>1.136082623042139</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I50">
-        <v>0.9999984364784772</v>
+        <v>8.678616373842403e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1882,26 +2127,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso1</t>
+          <t>Biliverdin_iso1</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.08957466635551284</v>
+        <v>4.01805621287053</v>
       </c>
       <c r="D51">
-        <v>0.5</v>
+        <v>0.0255</v>
       </c>
       <c r="E51">
-        <v>0.9397997790337802</v>
+        <v>3.957207942096554e-07</v>
       </c>
       <c r="F51">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G51">
-        <v>0.3010299956639812</v>
+        <v>1.593459819566045</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I51">
-        <v>0.9999984364784772</v>
+        <v>2.324859665981726e-06</v>
       </c>
     </row>
     <row r="52">
@@ -1912,26 +2162,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3-Me-Glutarylcarnitine</t>
+          <t>Chenodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.07859904393936459</v>
+        <v>3.993817778386551</v>
       </c>
       <c r="D52">
-        <v>0.722</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="E52">
-        <v>0.9747228765220164</v>
+        <v>4.415353537194855e-05</v>
       </c>
       <c r="F52">
-        <v>0.6774650506187275</v>
+        <v>0.1440150943396226</v>
       </c>
       <c r="G52">
-        <v>0.1414628024303609</v>
+        <v>1.090443970758825</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I52">
-        <v>0.9999984364784772</v>
+        <v>0.0001383477441654388</v>
       </c>
     </row>
     <row r="53">
@@ -1942,26 +2197,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
+          <t>Isobutyrylcarnitine</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.07503739561162895</v>
+        <v>3.976918251397529</v>
       </c>
       <c r="D53">
-        <v>0.526</v>
+        <v>0.0711</v>
       </c>
       <c r="E53">
-        <v>0.9529354796973856</v>
+        <v>2.716309547696592e-05</v>
       </c>
       <c r="F53">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G53">
-        <v>0.2790142558462609</v>
+        <v>1.148130399270234</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I53">
-        <v>0.9999984364784772</v>
+        <v>8.804589568395848e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1972,26 +2232,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso1</t>
+          <t>Kynurenic Acid</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.07119419881703773</v>
+        <v>3.925515798037178</v>
       </c>
       <c r="D54">
-        <v>0.858</v>
+        <v>0.0269</v>
       </c>
       <c r="E54">
-        <v>0.9891557519101887</v>
+        <v>6.854373540150262e-07</v>
       </c>
       <c r="F54">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G54">
-        <v>0.06651271215129456</v>
+        <v>1.570247719997592</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I54">
-        <v>0.9999984364784772</v>
+        <v>3.57950618207847e-06</v>
       </c>
     </row>
     <row r="55">
@@ -2002,26 +2267,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O-Acetylcarnitine</t>
+          <t>O-Octanoylcarnitine</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.07033643999082642</v>
+        <v>3.915158722489209</v>
       </c>
       <c r="D55">
-        <v>0.725</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E55">
-        <v>0.9776348454957637</v>
+        <v>3.09369556498341e-05</v>
       </c>
       <c r="F55">
-        <v>0.6774650506187275</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G55">
-        <v>0.1396619934290063</v>
+        <v>1.151810883008601</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I55">
-        <v>0.9999984364784772</v>
+        <v>9.857877393506457e-05</v>
       </c>
     </row>
     <row r="56">
@@ -2032,26 +2302,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Indole-3-Methyl Acetate</t>
+          <t>Eicosadienoic Acid</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.06698805616811934</v>
+        <v>3.87948570821619</v>
       </c>
       <c r="D56">
-        <v>0.855</v>
+        <v>0.17</v>
       </c>
       <c r="E56">
-        <v>0.9895609350024188</v>
+        <v>0.001034040594649684</v>
       </c>
       <c r="F56">
-        <v>0.6899127859237955</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G56">
-        <v>0.06803388527182737</v>
+        <v>0.769551078621726</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I56">
-        <v>0.9999984364784772</v>
+        <v>0.001983669712185108</v>
       </c>
     </row>
     <row r="57">
@@ -2062,26 +2337,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aspartate</t>
+          <t>Biliverdin_iso2</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.06538212288931966</v>
+        <v>3.868991487910081</v>
       </c>
       <c r="D57">
-        <v>0.535</v>
+        <v>0.0296</v>
       </c>
       <c r="E57">
-        <v>0.9599291800039114</v>
+        <v>1.217420589919843e-06</v>
       </c>
       <c r="F57">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G57">
-        <v>0.2716462179787715</v>
+        <v>1.528708288941061</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I57">
-        <v>0.9999984364784772</v>
+        <v>6.185812727160283e-06</v>
       </c>
     </row>
     <row r="58">
@@ -2092,26 +2372,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nervonate</t>
+          <t>6-Carboxyhexanoate</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.06282645154253474</v>
+        <v>3.787517828493411</v>
       </c>
       <c r="D58">
-        <v>0.883</v>
+        <v>0.00521</v>
       </c>
       <c r="E58">
-        <v>0.9922129768955503</v>
+        <v>2.25155298570357e-09</v>
       </c>
       <c r="F58">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G58">
-        <v>0.05403929642243141</v>
+        <v>2.283162276700475</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I58">
-        <v>0.9999984364784772</v>
+        <v>2.821946408748474e-08</v>
       </c>
     </row>
     <row r="59">
@@ -2122,26 +2407,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>Docosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.06269617242178262</v>
+        <v>3.769909070043554</v>
       </c>
       <c r="D59">
-        <v>0.865</v>
+        <v>0.169</v>
       </c>
       <c r="E59">
-        <v>0.9909486515178573</v>
+        <v>0.001228013340050686</v>
       </c>
       <c r="F59">
-        <v>0.6899127859237955</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G59">
-        <v>0.06298389253518578</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I59">
-        <v>0.9999984364784772</v>
+        <v>0.002331984928581101</v>
       </c>
     </row>
     <row r="60">
@@ -2152,26 +2442,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Citrulline</t>
+          <t>Aspartate</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.06028586474052359</v>
+        <v>3.745070484738054</v>
       </c>
       <c r="D60">
-        <v>0.766</v>
+        <v>0.041</v>
       </c>
       <c r="E60">
-        <v>0.9840578525589272</v>
+        <v>6.379369619899995e-06</v>
       </c>
       <c r="F60">
-        <v>0.6817321246130508</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G60">
-        <v>0.1157712303673961</v>
+        <v>1.387216143280265</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I60">
-        <v>0.9999984364784772</v>
+        <v>2.551747847959998e-05</v>
       </c>
     </row>
     <row r="61">
@@ -2182,26 +2477,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Isoleucine</t>
+          <t>Lauroylcarnitine</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.06018244526560684</v>
+        <v>3.698078501273882</v>
       </c>
       <c r="D61">
-        <v>0.345</v>
+        <v>0.0704</v>
       </c>
       <c r="E61">
-        <v>0.9379610907149372</v>
+        <v>5.473098024028518e-05</v>
       </c>
       <c r="F61">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G61">
-        <v>0.4621809049267259</v>
+        <v>1.152427340857888</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I61">
-        <v>0.9999984364784772</v>
+        <v>0.0001686790866421904</v>
       </c>
     </row>
     <row r="62">
@@ -2212,26 +2512,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Citrate_iso1</t>
+          <t>Indoxyl Sulfate_iso4</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.05895043304789178</v>
+        <v>3.681322678649256</v>
       </c>
       <c r="D62">
-        <v>0.627</v>
+        <v>0.17</v>
       </c>
       <c r="E62">
-        <v>0.9728566093596184</v>
+        <v>0.001469041828899856</v>
       </c>
       <c r="F62">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G62">
-        <v>0.2027324591692836</v>
+        <v>0.769551078621726</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I62">
-        <v>0.9999984364784772</v>
+        <v>0.00269397822146569</v>
       </c>
     </row>
     <row r="63">
@@ -2242,26 +2547,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kynurenic Acid</t>
+          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.05448328176910693</v>
+        <v>3.662373579304058</v>
       </c>
       <c r="D63">
-        <v>0.834</v>
+        <v>0.0751</v>
       </c>
       <c r="E63">
-        <v>0.9901588367597656</v>
+        <v>7.623833652011223e-05</v>
       </c>
       <c r="F63">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G63">
-        <v>0.0788339493622613</v>
+        <v>1.124360062995832</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I63">
-        <v>0.9999984364784772</v>
+        <v>0.0002205047271658631</v>
       </c>
     </row>
     <row r="64">
@@ -2272,26 +2582,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso1</t>
+          <t>Trans-2-Dodecenoylcarnitine</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.04959721017568732</v>
+        <v>3.650151249463242</v>
       </c>
       <c r="D64">
-        <v>0.873</v>
+        <v>0.0699</v>
       </c>
       <c r="E64">
-        <v>0.9932863585148753</v>
+        <v>6.055735796999965e-05</v>
       </c>
       <c r="F64">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G64">
-        <v>0.05898575629443027</v>
+        <v>1.155522824254319</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I64">
-        <v>0.9999984364784772</v>
+        <v>0.0001836255370703215</v>
       </c>
     </row>
     <row r="65">
@@ -2302,26 +2617,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
+          <t>3-Methylglutaconate</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.04711011245151451</v>
+        <v>3.619664011295537</v>
       </c>
       <c r="D65">
-        <v>0.9340000000000001</v>
+        <v>0.0259</v>
       </c>
       <c r="E65">
-        <v>0.9967885439261681</v>
+        <v>1.805835803481022e-06</v>
       </c>
       <c r="F65">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G65">
-        <v>0.02965312376990662</v>
+        <v>1.586700235918748</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I65">
-        <v>0.9999984364784772</v>
+        <v>8.487428276360805e-06</v>
       </c>
     </row>
     <row r="66">
@@ -2332,26 +2652,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3-Hydroxyphenylacetate</t>
+          <t>5,8-Tetradecandienoylcarnitine</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.03313065669675899</v>
+        <v>3.597346500337861</v>
       </c>
       <c r="D66">
-        <v>0.841</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E66">
-        <v>0.9942794008850089</v>
+        <v>6.178923828669733e-05</v>
       </c>
       <c r="F66">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G66">
-        <v>0.07520400420208784</v>
+        <v>1.170053304058364</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I66">
-        <v>0.9999984364784772</v>
+        <v>0.0001843869332999857</v>
       </c>
     </row>
     <row r="67">
@@ -2362,26 +2687,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Arachidonylcarnitine</t>
+          <t>4-Methylcatechol_iso1</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.03231781681434914</v>
+        <v>3.564464150701621</v>
       </c>
       <c r="D67">
-        <v>0.924</v>
+        <v>0.0725</v>
       </c>
       <c r="E67">
-        <v>0.9974487560733697</v>
+        <v>8.663944877201764e-05</v>
       </c>
       <c r="F67">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G67">
-        <v>0.03432802877989328</v>
+        <v>1.139661993429006</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I67">
-        <v>0.9999984364784772</v>
+        <v>0.0002467911571081715</v>
       </c>
     </row>
     <row r="68">
@@ -2392,26 +2722,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Glutamate Acid</t>
+          <t>Xanthine</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.02897289155846966</v>
+        <v>3.541351979582835</v>
       </c>
       <c r="D68">
-        <v>0.9429999999999999</v>
+        <v>0.0668</v>
       </c>
       <c r="E68">
-        <v>0.9983010549170173</v>
+        <v>6.88842285384298e-05</v>
       </c>
       <c r="F68">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G68">
-        <v>0.02548830726267165</v>
+        <v>1.175223537524454</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I68">
-        <v>0.9999984364784772</v>
+        <v>0.0002023474213316375</v>
       </c>
     </row>
     <row r="69">
@@ -2422,26 +2757,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
+          <t>L-Tryptophan</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.02524393934238858</v>
+        <v>3.537718387830552</v>
       </c>
       <c r="D69">
-        <v>0.9</v>
+        <v>0.169</v>
       </c>
       <c r="E69">
-        <v>0.9973438194404169</v>
+        <v>0.001855583907359653</v>
       </c>
       <c r="F69">
-        <v>0.6969105831508907</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G69">
-        <v>0.04575749056067512</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I69">
-        <v>0.9999984364784772</v>
+        <v>0.003291035609279384</v>
       </c>
     </row>
     <row r="70">
@@ -2452,26 +2792,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hexanoylcarnitine</t>
+          <t>Hyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.02429897233806931</v>
+        <v>3.499982390289764</v>
       </c>
       <c r="D70">
-        <v>0.9340000000000001</v>
+        <v>0.0759</v>
       </c>
       <c r="E70">
-        <v>0.998342269892225</v>
+        <v>0.0001204664005847483</v>
       </c>
       <c r="F70">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G70">
-        <v>0.02965312376990662</v>
+        <v>1.11975822410452</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I70">
-        <v>0.9999984364784772</v>
+        <v>0.0003330541663225393</v>
       </c>
     </row>
     <row r="71">
@@ -2482,26 +2827,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Decanoylcarnitine</t>
+          <t>Glycocholate</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.02291088300467626</v>
+        <v>3.445429725772853</v>
       </c>
       <c r="D71">
-        <v>0.92</v>
+        <v>0.0892</v>
       </c>
       <c r="E71">
-        <v>0.9980914772629351</v>
+        <v>0.0002418554443043162</v>
       </c>
       <c r="F71">
-        <v>0.6969105831508907</v>
+        <v>0.1552740740740741</v>
       </c>
       <c r="G71">
-        <v>0.03621217265444471</v>
+        <v>1.049635145623877</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I71">
-        <v>0.9999984364784772</v>
+        <v>0.0005829336349898903</v>
       </c>
     </row>
     <row r="72">
@@ -2512,26 +2862,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sebacate</t>
+          <t>Testosterone</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.01340487594606599</v>
+        <v>3.390370205628802</v>
       </c>
       <c r="D72">
-        <v>0.929</v>
+        <v>0.0134</v>
       </c>
       <c r="E72">
-        <v>0.9990132644092314</v>
+        <v>4.468810204953935e-07</v>
       </c>
       <c r="F72">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G72">
-        <v>0.03198428600635821</v>
+        <v>1.872895201635192</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I72">
-        <v>0.9999984364784772</v>
+        <v>2.545867631913151e-06</v>
       </c>
     </row>
     <row r="73">
@@ -2542,26 +2897,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso1</t>
+          <t>Indole-3-Carboxaldehyde_iso2</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.009862633842801791</v>
+        <v>3.381381342362863</v>
       </c>
       <c r="D73">
-        <v>0.948</v>
+        <v>0.0707</v>
       </c>
       <c r="E73">
-        <v>0.999473466359734</v>
+        <v>0.0001286614000475236</v>
       </c>
       <c r="F73">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G73">
-        <v>0.02319166266193377</v>
+        <v>1.150580586203101</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I73">
-        <v>0.9999984364784772</v>
+        <v>0.0003505556986802091</v>
       </c>
     </row>
     <row r="74">
@@ -2572,26 +2932,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso2</t>
+          <t>Myristoylcarnitine</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.007131462282132729</v>
+        <v>3.310424233160514</v>
       </c>
       <c r="D74">
-        <v>0.984</v>
+        <v>0.0701</v>
       </c>
       <c r="E74">
-        <v>0.9998849805363786</v>
+        <v>0.0001509513337970058</v>
       </c>
       <c r="F74">
-        <v>0.7109582386051373</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G74">
-        <v>0.007004901568658489</v>
+        <v>1.154281982033341</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I74">
-        <v>0.9999984364784772</v>
+        <v>0.0004054121536262443</v>
       </c>
     </row>
     <row r="75">
@@ -2602,26 +2967,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>O-Octanoylcarnitine</t>
+          <t>2-Hydroxyphenylacetate_iso1</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.004310247767475721</v>
+        <v>3.246776933210101</v>
       </c>
       <c r="D75">
-        <v>0.983</v>
+        <v>0.0276</v>
       </c>
       <c r="E75">
-        <v>0.9999260985380084</v>
+        <v>8.669210949992603e-06</v>
       </c>
       <c r="F75">
-        <v>0.7109582386051373</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G75">
-        <v>0.007446482167864384</v>
+        <v>1.559090917934782</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I75">
-        <v>0.9999984364784772</v>
+        <v>3.259623317197219e-05</v>
       </c>
     </row>
     <row r="76">
@@ -2632,26 +3002,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Benzoate</t>
+          <t>Dehydroepiandrosterone (Dhea)</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.0003900984026677795</v>
+        <v>3.237506452403646</v>
       </c>
       <c r="D76">
-        <v>0.996</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="E76">
-        <v>0.9999984364784772</v>
+        <v>0.0002173847475964223</v>
       </c>
       <c r="F76">
-        <v>0.7119728391013304</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G76">
-        <v>0.00174066157630127</v>
+        <v>1.131355561605174</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I76">
-        <v>0.9999984364784772</v>
+        <v>0.0005426357663505599</v>
       </c>
     </row>
     <row r="77">
@@ -2662,26 +3037,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Itaconate_iso2</t>
+          <t>2-Hydroxyphenylacetate_iso2</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.003636564338497157</v>
+        <v>3.234253748637272</v>
       </c>
       <c r="D77">
-        <v>0.96</v>
+        <v>0.0707</v>
       </c>
       <c r="E77">
-        <v>0.999851559208926</v>
+        <v>0.0001899898614173047</v>
       </c>
       <c r="F77">
-        <v>0.7011571176063389</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G77">
-        <v>0.0177287669604316</v>
+        <v>1.150580586203101</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I77">
-        <v>0.9999984364784772</v>
+        <v>0.000489288958170593</v>
       </c>
     </row>
     <row r="78">
@@ -2692,26 +3072,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Linoleic Acid (18:2 N?6)</t>
+          <t>Succinate_iso1</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.007792908619511735</v>
+        <v>3.228460105895473</v>
       </c>
       <c r="D78">
-        <v>0.991</v>
+        <v>0.0589</v>
       </c>
       <c r="E78">
-        <v>0.9999295487848769</v>
+        <v>0.000106995692606646</v>
       </c>
       <c r="F78">
-        <v>0.7119728391013304</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G78">
-        <v>0.003926345514724676</v>
+        <v>1.229884705212898</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I78">
-        <v>0.9999984364784772</v>
+        <v>0.0003002267195529768</v>
       </c>
     </row>
     <row r="79">
@@ -2722,26 +3107,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kynurenine</t>
+          <t>3-Methyl-2-Oxopentanoic Acid</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.008342606768393677</v>
+        <v>3.208974735111878</v>
       </c>
       <c r="D79">
-        <v>0.925</v>
+        <v>0.167</v>
       </c>
       <c r="E79">
-        <v>0.9993498089823073</v>
+        <v>0.003204179178107668</v>
       </c>
       <c r="F79">
-        <v>0.6969105831508907</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G79">
-        <v>0.03385826726096737</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I79">
-        <v>0.9999984364784772</v>
+        <v>0.005378443620395015</v>
       </c>
     </row>
     <row r="80">
@@ -2752,26 +3142,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cortisone</t>
+          <t>Indole-3-Methyl Acetate</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.009301956441815964</v>
+        <v>3.207383973474019</v>
       </c>
       <c r="D80">
-        <v>0.949</v>
+        <v>0.0688</v>
       </c>
       <c r="E80">
-        <v>0.9995131938482785</v>
+        <v>0.0001869389444917962</v>
       </c>
       <c r="F80">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G80">
-        <v>0.02273378757270735</v>
+        <v>1.162411561764489</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I80">
-        <v>0.9999984364784772</v>
+        <v>0.000489288958170593</v>
       </c>
     </row>
     <row r="81">
@@ -2782,26 +3177,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trans-Aconitate</t>
+          <t>Ascorbate</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.01979857448263519</v>
+        <v>3.198008639228524</v>
       </c>
       <c r="D81">
-        <v>0.592</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E81">
-        <v>0.9896743040120833</v>
+        <v>0.0002357687278214323</v>
       </c>
       <c r="F81">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G81">
-        <v>0.2276782932770803</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I81">
-        <v>0.9999984364784772</v>
+        <v>0.0005756431276679126</v>
       </c>
     </row>
     <row r="82">
@@ -2812,26 +3212,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Citrate_iso2</t>
+          <t>Homovanillate_iso2</t>
         </is>
       </c>
       <c r="C82">
-        <v>-0.03309748755865929</v>
+        <v>3.193256286396901</v>
       </c>
       <c r="D82">
-        <v>0.694</v>
+        <v>0.0682</v>
       </c>
       <c r="E82">
-        <v>0.9879828298410976</v>
+        <v>0.000188788103222062</v>
       </c>
       <c r="F82">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G82">
-        <v>0.1586405295451451</v>
+        <v>1.166215625343521</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I82">
-        <v>0.9999984364784772</v>
+        <v>0.000489288958170593</v>
       </c>
     </row>
     <row r="83">
@@ -2842,26 +3247,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3-Hydroxybenzoate</t>
+          <t>Isoleucine</t>
         </is>
       </c>
       <c r="C83">
-        <v>-0.03342599852119717</v>
+        <v>3.17527564935604</v>
       </c>
       <c r="D83">
-        <v>0.908</v>
+        <v>0.0211</v>
       </c>
       <c r="E83">
-        <v>0.9967792246472886</v>
+        <v>4.776776098535744e-06</v>
       </c>
       <c r="F83">
-        <v>0.6969105831508907</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G83">
-        <v>0.04191415147891488</v>
+        <v>1.675717544702307</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I83">
-        <v>0.9999984364784772</v>
+        <v>1.995630903388266e-05</v>
       </c>
     </row>
     <row r="84">
@@ -2872,26 +3282,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Glycocholic Acid_iso1</t>
         </is>
       </c>
       <c r="C84">
-        <v>-0.0338006587137635</v>
+        <v>3.169197622464232</v>
       </c>
       <c r="D84">
-        <v>0.842</v>
+        <v>0.0793</v>
       </c>
       <c r="E84">
-        <v>0.9942039848519441</v>
+        <v>0.0003247724655066783</v>
       </c>
       <c r="F84">
-        <v>0.6899127859237955</v>
+        <v>0.1419847619047619</v>
       </c>
       <c r="G84">
-        <v>0.07468790850035051</v>
+        <v>1.100726812682396</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I84">
-        <v>0.9999984364784772</v>
+        <v>0.0007268717085149467</v>
       </c>
     </row>
     <row r="85">
@@ -2902,26 +3317,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Norleucine</t>
+          <t>3-Me-Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C85">
-        <v>-0.03403366162196891</v>
+        <v>3.167906247644616</v>
       </c>
       <c r="D85">
-        <v>0.876</v>
+        <v>0.0267</v>
       </c>
       <c r="E85">
-        <v>0.9955044465595377</v>
+        <v>1.035941411615648e-05</v>
       </c>
       <c r="F85">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G85">
-        <v>0.05749589383191927</v>
+        <v>1.573488738635425</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I85">
-        <v>0.9999984364784772</v>
+        <v>3.674660101580036e-05</v>
       </c>
     </row>
     <row r="86">
@@ -2932,26 +3352,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5-Hydroxytryptophan</t>
+          <t>Methionine_iso2</t>
         </is>
       </c>
       <c r="C86">
-        <v>-0.03497119152059988</v>
+        <v>3.152750219850569</v>
       </c>
       <c r="D86">
-        <v>0.574</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="E86">
-        <v>0.9807738132245477</v>
+        <v>0.0002193633949076732</v>
       </c>
       <c r="F86">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G86">
-        <v>0.2410881076020265</v>
+        <v>1.160521952625802</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I86">
-        <v>0.9999984364784772</v>
+        <v>0.0005426357663505599</v>
       </c>
     </row>
     <row r="87">
@@ -2962,26 +3387,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lauroylcarnitine</t>
+          <t>Adipate_iso2</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.03527784615475888</v>
+        <v>3.125288969518192</v>
       </c>
       <c r="D87">
-        <v>0.88</v>
+        <v>0.0735</v>
       </c>
       <c r="E87">
-        <v>0.9955004673518365</v>
+        <v>0.0002862993264094295</v>
       </c>
       <c r="F87">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G87">
-        <v>0.05551732784983137</v>
+        <v>1.133712660915805</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I87">
-        <v>0.9999984364784772</v>
+        <v>0.0006728034170621594</v>
       </c>
     </row>
     <row r="88">
@@ -2992,26 +3422,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4-Quinolinecarboxylate</t>
+          <t>Tauro-?-Muricholic Acid</t>
         </is>
       </c>
       <c r="C88">
-        <v>-0.0355488400935876</v>
+        <v>3.112671818544861</v>
       </c>
       <c r="D88">
-        <v>0.736</v>
+        <v>0.177</v>
       </c>
       <c r="E88">
-        <v>0.9891625391398815</v>
+        <v>0.004562339288459681</v>
       </c>
       <c r="F88">
-        <v>0.6774650506187275</v>
+        <v>0.207975</v>
       </c>
       <c r="G88">
-        <v>0.1331221856625011</v>
+        <v>0.7520267336381934</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I88">
-        <v>0.9999984364784772</v>
+        <v>0.007523857773951053</v>
       </c>
     </row>
     <row r="89">
@@ -3022,26 +3457,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Glutamine_iso1</t>
+          <t>Biliverdin_[M+Na]+</t>
         </is>
       </c>
       <c r="C89">
-        <v>-0.04354572932811331</v>
+        <v>3.10287463033317</v>
       </c>
       <c r="D89">
-        <v>0.733</v>
+        <v>0.0689</v>
       </c>
       <c r="E89">
-        <v>0.9865653409675804</v>
+        <v>0.0002483933116471194</v>
       </c>
       <c r="F89">
-        <v>0.6774650506187275</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G89">
-        <v>0.1348960253588721</v>
+        <v>1.161780778092374</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I89">
-        <v>0.9999984364784772</v>
+        <v>0.0005911131973374486</v>
       </c>
     </row>
     <row r="90">
@@ -3052,26 +3492,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
         </is>
       </c>
       <c r="C90">
-        <v>-0.04434251314232387</v>
+        <v>3.085902985917035</v>
       </c>
       <c r="D90">
-        <v>0.701</v>
+        <v>0.073</v>
       </c>
       <c r="E90">
-        <v>0.9843708605365398</v>
+        <v>0.000310688100593693</v>
       </c>
       <c r="F90">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G90">
-        <v>0.1542819820333414</v>
+        <v>1.136677139879544</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I90">
-        <v>0.9999984364784772</v>
+        <v>0.0007123093038001743</v>
       </c>
     </row>
     <row r="91">
@@ -3082,26 +3527,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Thyroxine</t>
+          <t>4-Methylcatechol_iso2</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.04602281257491683</v>
+        <v>3.029069442908154</v>
       </c>
       <c r="D91">
-        <v>0.583</v>
+        <v>0.167</v>
       </c>
       <c r="E91">
-        <v>0.9754733474803357</v>
+        <v>0.004421343063768573</v>
       </c>
       <c r="F91">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G91">
-        <v>0.234331445240986</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I91">
-        <v>0.9999984364784772</v>
+        <v>0.007355862796358335</v>
       </c>
     </row>
     <row r="92">
@@ -3112,26 +3562,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1-Methyladenosine</t>
+          <t>Ketoleucine</t>
         </is>
       </c>
       <c r="C92">
-        <v>-0.04764157248278365</v>
+        <v>3.016260744102744</v>
       </c>
       <c r="D92">
-        <v>0.828</v>
+        <v>0.169</v>
       </c>
       <c r="E92">
-        <v>0.9910483352639483</v>
+        <v>0.004689267168346746</v>
       </c>
       <c r="F92">
-        <v>0.6899127859237955</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G92">
-        <v>0.08196966321511988</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I92">
-        <v>0.9999984364784772</v>
+        <v>0.007665932414340768</v>
       </c>
     </row>
     <row r="93">
@@ -3142,26 +3597,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Caffeate_iso2</t>
+          <t>3,4-Dihydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.05666843420973779</v>
+        <v>3.01349275089801</v>
       </c>
       <c r="D93">
-        <v>0.822</v>
+        <v>0.0683</v>
       </c>
       <c r="E93">
-        <v>0.988953607894793</v>
+        <v>0.0003072806691836875</v>
       </c>
       <c r="F93">
-        <v>0.6899127859237955</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G93">
-        <v>0.08512818245994963</v>
+        <v>1.165579296318467</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I93">
-        <v>0.9999984364784772</v>
+        <v>0.0007123093038001743</v>
       </c>
     </row>
     <row r="94">
@@ -3172,26 +3632,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Oxoglutarate</t>
+          <t>Glutamine_iso2</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.05856634814232357</v>
+        <v>3.007720971618604</v>
       </c>
       <c r="D94">
-        <v>0.657</v>
+        <v>0.0702</v>
       </c>
       <c r="E94">
-        <v>0.9756981239076467</v>
+        <v>0.0003389252600710461</v>
       </c>
       <c r="F94">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G94">
-        <v>0.1824346304402192</v>
+        <v>1.153662887870195</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I94">
-        <v>0.9999984364784772</v>
+        <v>0.0007496229281571372</v>
       </c>
     </row>
     <row r="95">
@@ -3202,26 +3667,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Phenylpyruvate</t>
+          <t>Heptadecanoate</t>
         </is>
       </c>
       <c r="C95">
-        <v>-0.05928722699121924</v>
+        <v>2.977175991408927</v>
       </c>
       <c r="D95">
-        <v>0.645</v>
+        <v>0.169</v>
       </c>
       <c r="E95">
-        <v>0.9743372884615095</v>
+        <v>0.005026698467395987</v>
       </c>
       <c r="F95">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G95">
-        <v>0.1904402853647322</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I95">
-        <v>0.9999984364784772</v>
+        <v>0.008146718205779703</v>
       </c>
     </row>
     <row r="96">
@@ -3232,26 +3702,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3-Methyl-2-Oxopentanoic Acid</t>
+          <t>Homovanillate_iso1</t>
         </is>
       </c>
       <c r="C96">
-        <v>-0.05988312022670228</v>
+        <v>2.944538184538355</v>
       </c>
       <c r="D96">
-        <v>0.543</v>
+        <v>0.0648</v>
       </c>
       <c r="E96">
-        <v>0.9640931259241823</v>
+        <v>0.0003166920966846364</v>
       </c>
       <c r="F96">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G96">
-        <v>0.265200170411153</v>
+        <v>1.188424994129407</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I96">
-        <v>0.9999984364784772</v>
+        <v>0.000717326676827851</v>
       </c>
     </row>
     <row r="97">
@@ -3262,26 +3737,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Glutarylcarnitine</t>
+          <t>Adipate_iso1</t>
         </is>
       </c>
       <c r="C97">
-        <v>-0.067115601600384</v>
+        <v>2.869727391439805</v>
       </c>
       <c r="D97">
-        <v>0.5669999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="E97">
-        <v>0.9626348466431898</v>
+        <v>0.0003920892574326014</v>
       </c>
       <c r="F97">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G97">
-        <v>0.2464169411070935</v>
+        <v>1.187086643357144</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I97">
-        <v>0.9999984364784772</v>
+        <v>0.0008472733379003339</v>
       </c>
     </row>
     <row r="98">
@@ -3292,26 +3772,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Myristoylcarnitine</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
         </is>
       </c>
       <c r="C98">
-        <v>-0.07256013287407742</v>
+        <v>2.857987830721849</v>
       </c>
       <c r="D98">
-        <v>0.765</v>
+        <v>0.166</v>
       </c>
       <c r="E98">
-        <v>0.980750319486966</v>
+        <v>0.00590307643082531</v>
       </c>
       <c r="F98">
-        <v>0.6817321246130508</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G98">
-        <v>0.1163385648463824</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I98">
-        <v>0.9999984364784772</v>
+        <v>0.009485285205086822</v>
       </c>
     </row>
     <row r="99">
@@ -3322,26 +3807,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Palmitoylcarnitine_[M+Na]+</t>
+          <t>Arachidonylcarnitine</t>
         </is>
       </c>
       <c r="C99">
-        <v>-0.07363045114557097</v>
+        <v>2.85355037600457</v>
       </c>
       <c r="D99">
-        <v>0.773</v>
+        <v>0.0709</v>
       </c>
       <c r="E99">
-        <v>0.9812204833472011</v>
+        <v>0.0005251231109541422</v>
       </c>
       <c r="F99">
-        <v>0.683435986508942</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G99">
-        <v>0.1118205060816751</v>
+        <v>1.149353764816933</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I99">
-        <v>0.9999984364784772</v>
+        <v>0.001096923831770875</v>
       </c>
     </row>
     <row r="100">
@@ -3352,26 +3842,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
+          <t>Palmitoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C100">
-        <v>-0.07608462926975527</v>
+        <v>2.838944613990328</v>
       </c>
       <c r="D100">
-        <v>0.621</v>
+        <v>0.165</v>
       </c>
       <c r="E100">
-        <v>0.964400553823768</v>
+        <v>0.006004547131260527</v>
       </c>
       <c r="F100">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G100">
-        <v>0.2069083998234198</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I100">
-        <v>0.9999984364784772</v>
+        <v>0.009566566615906604</v>
       </c>
     </row>
     <row r="101">
@@ -3382,26 +3877,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hyodeoxycholic Acid</t>
+          <t>Tigloylcarnitine</t>
         </is>
       </c>
       <c r="C101">
-        <v>-0.08395273748282123</v>
+        <v>2.816455312596222</v>
       </c>
       <c r="D101">
-        <v>0.782</v>
+        <v>0.0728</v>
       </c>
       <c r="E101">
-        <v>0.9795676057061883</v>
+        <v>0.0006240851923762119</v>
       </c>
       <c r="F101">
-        <v>0.6868742874328766</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G101">
-        <v>0.106793246940152</v>
+        <v>1.137868620686963</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I101">
-        <v>0.9999984364784772</v>
+        <v>0.001289318858975031</v>
       </c>
     </row>
     <row r="102">
@@ -3412,26 +3912,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso2</t>
+          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.08804019291924627</v>
+        <v>2.784423407536711</v>
       </c>
       <c r="D102">
-        <v>0.317</v>
+        <v>0.074</v>
       </c>
       <c r="E102">
-        <v>0.9038017152148066</v>
+        <v>0.0007103335572872523</v>
       </c>
       <c r="F102">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G102">
-        <v>0.4989407377822485</v>
+        <v>1.130768280269024</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I102">
-        <v>0.9999984364784772</v>
+        <v>0.001420667114574505</v>
       </c>
     </row>
     <row r="103">
@@ -3442,26 +3947,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ketoleucine</t>
+          <t>N-Acetylneuraminate_iso2</t>
         </is>
       </c>
       <c r="C103">
-        <v>-0.09875716561702538</v>
+        <v>2.746996463857768</v>
       </c>
       <c r="D103">
-        <v>0.265</v>
+        <v>0.0752</v>
       </c>
       <c r="E103">
-        <v>0.8770844214562326</v>
+        <v>0.0008184165101871269</v>
       </c>
       <c r="F103">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G103">
-        <v>0.5767541260631921</v>
+        <v>1.123782159408358</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I103">
-        <v>0.9999984364784772</v>
+        <v>0.001586209318713194</v>
       </c>
     </row>
     <row r="104">
@@ -3472,26 +3982,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3-Methylindole</t>
+          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C104">
-        <v>-0.1027868771540991</v>
+        <v>2.713802847391964</v>
       </c>
       <c r="D104">
-        <v>0.352</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E104">
-        <v>0.89823616439804</v>
+        <v>0.0006678916467843964</v>
       </c>
       <c r="F104">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G104">
-        <v>0.453457336521869</v>
+        <v>1.170053304058364</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I104">
-        <v>0.9999984364784772</v>
+        <v>0.001350146554789963</v>
       </c>
     </row>
     <row r="105">
@@ -3502,26 +4017,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>L-Tryptophan</t>
+          <t>Tauroursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C105">
-        <v>-0.1042279754719221</v>
+        <v>2.688329330609981</v>
       </c>
       <c r="D105">
-        <v>0.245</v>
+        <v>0.162</v>
       </c>
       <c r="E105">
-        <v>0.8636425233214008</v>
+        <v>0.007497492296221995</v>
       </c>
       <c r="F105">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G105">
-        <v>0.6108339156354675</v>
+        <v>0.790484985457369</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I105">
-        <v>0.9999984364784772</v>
+        <v>0.01184477774529189</v>
       </c>
     </row>
     <row r="106">
@@ -3532,26 +4052,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cystine</t>
+          <t>Glycoursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C106">
-        <v>-0.1064560419881077</v>
+        <v>2.681049035140793</v>
       </c>
       <c r="D106">
-        <v>0.52</v>
+        <v>0.0853</v>
       </c>
       <c r="E106">
-        <v>0.9327533983963936</v>
+        <v>0.001360886580221394</v>
       </c>
       <c r="F106">
-        <v>0.6690829090349851</v>
+        <v>0.1498728971962617</v>
       </c>
       <c r="G106">
-        <v>0.2839966563652008</v>
+        <v>1.069050968832477</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I106">
-        <v>0.9999984364784772</v>
+        <v>0.002533135416649724</v>
       </c>
     </row>
     <row r="107">
@@ -3562,26 +4087,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Leucine</t>
+          <t>Isovalerylcarnitine</t>
         </is>
       </c>
       <c r="C107">
-        <v>-0.1070414105778228</v>
+        <v>2.673329826640484</v>
       </c>
       <c r="D107">
-        <v>0.246</v>
+        <v>0.163</v>
       </c>
       <c r="E107">
-        <v>0.860606921742205</v>
+        <v>0.007832810595912587</v>
       </c>
       <c r="F107">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G107">
-        <v>0.6090648928966209</v>
+        <v>0.7878123955960422</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I107">
-        <v>0.9999984364784772</v>
+        <v>0.01227140326692972</v>
       </c>
     </row>
     <row r="108">
@@ -3592,26 +4122,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Homovanillate_iso1</t>
+          <t>Indoxyl Sulfate_iso3</t>
         </is>
       </c>
       <c r="C108">
-        <v>-0.107495616542912</v>
+        <v>2.664250816181335</v>
       </c>
       <c r="D108">
-        <v>0.82</v>
+        <v>0.167</v>
       </c>
       <c r="E108">
-        <v>0.9788933246130388</v>
+        <v>0.008494185162930896</v>
       </c>
       <c r="F108">
-        <v>0.6899127859237955</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G108">
-        <v>0.08618614761628333</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I108">
-        <v>0.9999984364784772</v>
+        <v>0.0129829822002521</v>
       </c>
     </row>
     <row r="109">
@@ -3622,26 +4157,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Methionine_iso2</t>
+          <t>Idp (Inosine 5'-Diphosphate)</t>
         </is>
       </c>
       <c r="C109">
-        <v>-0.1100961553486805</v>
+        <v>2.663904900104147</v>
       </c>
       <c r="D109">
-        <v>0.652</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="E109">
-        <v>0.9540021960958498</v>
+        <v>0.0006658658133511276</v>
       </c>
       <c r="F109">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G109">
-        <v>0.1857524042680798</v>
+        <v>1.192464971931147</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I109">
-        <v>0.9999984364784772</v>
+        <v>0.001350146554789963</v>
       </c>
     </row>
     <row r="110">
@@ -3652,26 +4192,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Indole-3-Acetamide_[M+Na]+</t>
+          <t>Thyroxine</t>
         </is>
       </c>
       <c r="C110">
-        <v>-0.1144176080469986</v>
+        <v>2.663448813546787</v>
       </c>
       <c r="D110">
-        <v>0.533</v>
+        <v>0.0667</v>
       </c>
       <c r="E110">
-        <v>0.9305351459553876</v>
+        <v>0.0007381070397538857</v>
       </c>
       <c r="F110">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G110">
-        <v>0.2732727909734277</v>
+        <v>1.175874166083451</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I110">
-        <v>0.9999984364784772</v>
+        <v>0.001460674983934005</v>
       </c>
     </row>
     <row r="111">
@@ -3682,26 +4227,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Stearoylcarnitine_[M+Na]+</t>
+          <t>3-Hydroxybenzoate</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.1200498687752832</v>
+        <v>2.621695298687415</v>
       </c>
       <c r="D111">
-        <v>0.514</v>
+        <v>0.159</v>
       </c>
       <c r="E111">
-        <v>0.9232114037494629</v>
+        <v>0.008059472083506382</v>
       </c>
       <c r="F111">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G111">
-        <v>0.2890368810047242</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I111">
-        <v>0.9999984364784772</v>
+        <v>0.01252215497272066</v>
       </c>
     </row>
     <row r="112">
@@ -3712,26 +4262,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Glutamine_iso2</t>
+          <t>Glycocholic Acid_iso2</t>
         </is>
       </c>
       <c r="C112">
-        <v>-0.1232443381711701</v>
+        <v>2.604843842123084</v>
       </c>
       <c r="D112">
-        <v>0.291</v>
+        <v>0.163</v>
       </c>
       <c r="E112">
-        <v>0.8588708167031748</v>
+        <v>0.008868940321787961</v>
       </c>
       <c r="F112">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G112">
-        <v>0.5361070110140927</v>
+        <v>0.7878123955960422</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I112">
-        <v>0.9999984364784772</v>
+        <v>0.01344645790722691</v>
       </c>
     </row>
     <row r="113">
@@ -3742,26 +4297,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5-Aminolevulinate</t>
+          <t>N-Acetylneuraminate_iso1</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.124311974362836</v>
+        <v>2.601519359382749</v>
       </c>
       <c r="D113">
-        <v>0.204</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="E113">
-        <v>0.8206892846284265</v>
+        <v>0.0007586513968152318</v>
       </c>
       <c r="F113">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G113">
-        <v>0.6903698325741012</v>
+        <v>1.199282921717615</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I113">
-        <v>0.9999984364784772</v>
+        <v>0.001485692318763162</v>
       </c>
     </row>
     <row r="114">
@@ -3772,26 +4332,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Urate_iso2</t>
+          <t>5-Aminolevulinate</t>
         </is>
       </c>
       <c r="C114">
-        <v>-0.1265379763040482</v>
+        <v>2.524273329945309</v>
       </c>
       <c r="D114">
-        <v>0.209</v>
+        <v>0.0726</v>
       </c>
       <c r="E114">
-        <v>0.8202999533666483</v>
+        <v>0.001332578157853375</v>
       </c>
       <c r="F114">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G114">
-        <v>0.679853713888946</v>
+        <v>1.139063379299906</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I114">
-        <v>0.9999984364784772</v>
+        <v>0.002505246936764346</v>
       </c>
     </row>
     <row r="115">
@@ -3802,26 +4367,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso2</t>
+          <t>Benzoate</t>
         </is>
       </c>
       <c r="C115">
-        <v>-0.130946249428576</v>
+        <v>2.512515349290407</v>
       </c>
       <c r="D115">
-        <v>0.274</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="E115">
-        <v>0.8440643251484395</v>
+        <v>0.001635193735891763</v>
       </c>
       <c r="F115">
-        <v>0.6690829090349851</v>
+        <v>0.1406384615384615</v>
       </c>
       <c r="G115">
-        <v>0.562249437179612</v>
+        <v>1.109020403010311</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I115">
-        <v>0.9999984364784772</v>
+        <v>0.002927775450930014</v>
       </c>
     </row>
     <row r="116">
@@ -3832,26 +4402,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Urate_iso1</t>
+          <t>Glycoursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C116">
-        <v>-0.1316396173695955</v>
+        <v>2.497413120366812</v>
       </c>
       <c r="D116">
-        <v>0.268</v>
+        <v>0.163</v>
       </c>
       <c r="E116">
-        <v>0.8408526226473652</v>
+        <v>0.01077722591760391</v>
       </c>
       <c r="F116">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G116">
-        <v>0.5718652059712112</v>
+        <v>0.7878123955960422</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I116">
-        <v>0.9999984364784772</v>
+        <v>0.01620894778007628</v>
       </c>
     </row>
     <row r="117">
@@ -3862,26 +4437,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Isobutyrylcarnitine</t>
+          <t>Deoxyuridine-Monophosphate</t>
         </is>
       </c>
       <c r="C117">
-        <v>-0.1332472096219881</v>
+        <v>2.482121455658531</v>
       </c>
       <c r="D117">
-        <v>0.702</v>
+        <v>0.164</v>
       </c>
       <c r="E117">
-        <v>0.9539483232127144</v>
+        <v>0.01124985873943766</v>
       </c>
       <c r="F117">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G117">
-        <v>0.1536628878701947</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I117">
-        <v>0.9999984364784772</v>
+        <v>0.01665333419696283</v>
       </c>
     </row>
     <row r="118">
@@ -3892,26 +4472,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ethylmalonate</t>
+          <t>Indoxyl Sulfate_iso2</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.1359060425876747</v>
+        <v>2.453859419268469</v>
       </c>
       <c r="D118">
-        <v>0.469</v>
+        <v>0.0702</v>
       </c>
       <c r="E118">
-        <v>0.9022157459322995</v>
+        <v>0.00147595615324982</v>
       </c>
       <c r="F118">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G118">
-        <v>0.3288271572849167</v>
+        <v>1.153662887870195</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I118">
-        <v>0.9999984364784772</v>
+        <v>0.00269397822146569</v>
       </c>
     </row>
     <row r="119">
@@ -3922,26 +4507,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso2</t>
+          <t>Norleucine</t>
         </is>
       </c>
       <c r="C119">
-        <v>-0.1363594865714148</v>
+        <v>2.447819222987029</v>
       </c>
       <c r="D119">
-        <v>0.123</v>
+        <v>0.031</v>
       </c>
       <c r="E119">
-        <v>0.7514497222525791</v>
+        <v>0.0002028271805286904</v>
       </c>
       <c r="F119">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G119">
-        <v>0.9100948885606021</v>
+        <v>1.508638306165727</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I119">
-        <v>0.9999984364784772</v>
+        <v>0.000515290674856673</v>
       </c>
     </row>
     <row r="120">
@@ -3952,26 +4542,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Docosapentaenoic Acid</t>
+          <t>Indole-3-Acetate_[M+Na]+</t>
         </is>
       </c>
       <c r="C120">
-        <v>-0.1377057016570367</v>
+        <v>2.445008378556233</v>
       </c>
       <c r="D120">
-        <v>0.881</v>
+        <v>0.0911</v>
       </c>
       <c r="E120">
-        <v>0.9827043282161263</v>
+        <v>0.00285768078057029</v>
       </c>
       <c r="F120">
-        <v>0.6899127859237955</v>
+        <v>0.1571266055045872</v>
       </c>
       <c r="G120">
-        <v>0.05502409158795209</v>
+        <v>1.040481623027002</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I120">
-        <v>0.9999984364784772</v>
+        <v>0.004884036243156495</v>
       </c>
     </row>
     <row r="121">
@@ -3982,26 +4577,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>_13-Hydroxyoctadecadienoic Acid</t>
+          <t>Sebacate</t>
         </is>
       </c>
       <c r="C121">
-        <v>-0.1401638998275642</v>
+        <v>2.442458944994955</v>
       </c>
       <c r="D121">
-        <v>0.677</v>
+        <v>0.159</v>
       </c>
       <c r="E121">
-        <v>0.9467921470756724</v>
+        <v>0.01120586181841452</v>
       </c>
       <c r="F121">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G121">
-        <v>0.1694113313148557</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I121">
-        <v>0.9999984364784772</v>
+        <v>0.01665333419696283</v>
       </c>
     </row>
     <row r="122">
@@ -4012,26 +4612,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso2</t>
+          <t>Cortisone</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.1402557426460961</v>
+        <v>2.437957552178896</v>
       </c>
       <c r="D122">
-        <v>0.482</v>
+        <v>0.0712</v>
       </c>
       <c r="E122">
-        <v>0.9027043327439491</v>
+        <v>0.001593657291846453</v>
       </c>
       <c r="F122">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G122">
-        <v>0.3169529617611505</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I122">
-        <v>0.9999984364784772</v>
+        <v>0.002880842027568588</v>
       </c>
     </row>
     <row r="123">
@@ -4042,26 +4647,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
+          <t>3-Indoleacrylic Acid_iso2</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.1411248625801319</v>
+        <v>2.368613209905887</v>
       </c>
       <c r="D123">
-        <v>0.302</v>
+        <v>0.16</v>
       </c>
       <c r="E123">
-        <v>0.8445318858409098</v>
+        <v>0.01302770984759172</v>
       </c>
       <c r="F123">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G123">
-        <v>0.5199930570428494</v>
+        <v>0.7958800173440752</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I123">
-        <v>0.9999984364784772</v>
+        <v>0.01898611977788561</v>
       </c>
     </row>
     <row r="124">
@@ -4072,26 +4682,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3,4-Dihydroxyphenylacetate</t>
+          <t>4-Coumarate</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.1416858653660255</v>
+        <v>2.357901254784248</v>
       </c>
       <c r="D124">
-        <v>0.638</v>
+        <v>0.172</v>
       </c>
       <c r="E124">
-        <v>0.9383089286698209</v>
+        <v>0.01575620293374048</v>
       </c>
       <c r="F124">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G124">
-        <v>0.1951793212788377</v>
+        <v>0.7644715530924511</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I124">
-        <v>0.9999984364784772</v>
+        <v>0.02217912454566973</v>
       </c>
     </row>
     <row r="125">
@@ -4102,26 +4717,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Aspartame</t>
+          <t>Stearoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C125">
-        <v>-0.1426912228616761</v>
+        <v>2.347750049718888</v>
       </c>
       <c r="D125">
-        <v>0.218</v>
+        <v>0.158</v>
       </c>
       <c r="E125">
-        <v>0.8046435754848085</v>
+        <v>0.01314156646999573</v>
       </c>
       <c r="F125">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G125">
-        <v>0.6615435063953952</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I125">
-        <v>0.9999984364784772</v>
+        <v>0.01900472689507075</v>
       </c>
     </row>
     <row r="126">
@@ -4132,26 +4752,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso1</t>
+          <t>Oxoglutarate</t>
         </is>
       </c>
       <c r="C126">
-        <v>-0.14426779221154</v>
+        <v>2.334081521333093</v>
       </c>
       <c r="D126">
-        <v>0.67</v>
+        <v>0.158</v>
       </c>
       <c r="E126">
-        <v>0.9438613351441966</v>
+        <v>0.01347721989539285</v>
       </c>
       <c r="F126">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G126">
-        <v>0.1739251972991736</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I126">
-        <v>0.9999984364784772</v>
+        <v>0.01934135374300653</v>
       </c>
     </row>
     <row r="127">
@@ -4162,26 +4787,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Gluconate</t>
+          <t>Leucine</t>
         </is>
       </c>
       <c r="C127">
-        <v>-0.1547941344678797</v>
+        <v>2.268715072662413</v>
       </c>
       <c r="D127">
-        <v>0.148</v>
+        <v>0.158</v>
       </c>
       <c r="E127">
-        <v>0.7439802048730817</v>
+        <v>0.01520481900648692</v>
       </c>
       <c r="F127">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G127">
-        <v>0.8297382846050426</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I127">
-        <v>0.9999984364784772</v>
+        <v>0.02165534828196622</v>
       </c>
     </row>
     <row r="128">
@@ -4192,26 +4822,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1-Hydroxy-2-Naphthoate</t>
+          <t>Ferulate</t>
         </is>
       </c>
       <c r="C128">
-        <v>-0.155447198345458</v>
+        <v>2.250430650793663</v>
       </c>
       <c r="D128">
-        <v>0.393</v>
+        <v>0.159</v>
       </c>
       <c r="E128">
-        <v>0.8648672626929859</v>
+        <v>0.01595142957262501</v>
       </c>
       <c r="F128">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G128">
-        <v>0.4056074496245733</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I128">
-        <v>0.9999984364784772</v>
+        <v>0.02221384266410001</v>
       </c>
     </row>
     <row r="129">
@@ -4222,26 +4857,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso2</t>
+          <t>Glutamine_iso1</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.1580555216020189</v>
+        <v>2.242122022319265</v>
       </c>
       <c r="D129">
-        <v>0.5570000000000001</v>
+        <v>0.0329</v>
       </c>
       <c r="E129">
-        <v>0.9116560329894651</v>
+        <v>0.0004735570080489116</v>
       </c>
       <c r="F129">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G129">
-        <v>0.2541448048262711</v>
+        <v>1.482804102050026</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I129">
-        <v>0.9999984364784772</v>
+        <v>0.001011689971740857</v>
       </c>
     </row>
     <row r="130">
@@ -4252,26 +4892,31 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
+          <t>Itaconate_iso1</t>
         </is>
       </c>
       <c r="C130">
-        <v>-0.1634634886134849</v>
+        <v>2.239905326013372</v>
       </c>
       <c r="D130">
-        <v>0.545</v>
+        <v>0.157</v>
       </c>
       <c r="E130">
-        <v>0.9055458667920809</v>
+        <v>0.0158085249421263</v>
       </c>
       <c r="F130">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G130">
-        <v>0.2636034977233575</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I130">
-        <v>0.9999984364784772</v>
+        <v>0.02217912454566973</v>
       </c>
     </row>
     <row r="131">
@@ -4282,26 +4927,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cysteine</t>
+          <t>4-Quinolinecarboxylate</t>
         </is>
       </c>
       <c r="C131">
-        <v>-0.1650243174872653</v>
+        <v>2.191223757520478</v>
       </c>
       <c r="D131">
-        <v>0.295</v>
+        <v>0.065</v>
       </c>
       <c r="E131">
-        <v>0.817537608051452</v>
+        <v>0.002505114292953025</v>
       </c>
       <c r="F131">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G131">
-        <v>0.530177984021837</v>
+        <v>1.187086643357144</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I131">
-        <v>0.9999984364784772</v>
+        <v>0.004401509225001576</v>
       </c>
     </row>
     <row r="132">
@@ -4312,26 +4962,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
+          <t>Citrulline</t>
         </is>
       </c>
       <c r="C132">
-        <v>-0.1664920058002849</v>
+        <v>2.162682231345172</v>
       </c>
       <c r="D132">
-        <v>0.0612</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="E132">
-        <v>0.6280638697670048</v>
+        <v>0.002726429954082554</v>
       </c>
       <c r="F132">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G132">
-        <v>1.213248577854439</v>
+        <v>1.18575240426808</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I132">
-        <v>0.9999984364784772</v>
+        <v>0.004702466342821286</v>
       </c>
     </row>
     <row r="133">
@@ -4342,26 +4997,26 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>L-Arginine</t>
+          <t>Glycocholic Acid_iso3</t>
         </is>
       </c>
       <c r="C133">
-        <v>-0.1811034961559914</v>
+        <v>2.156035269136594</v>
       </c>
       <c r="D133">
-        <v>0.296</v>
+        <v>0.348</v>
       </c>
       <c r="E133">
-        <v>0.8021379807817496</v>
+        <v>0.102713772841447</v>
       </c>
       <c r="F133">
-        <v>0.6690829090349851</v>
+        <v>0.3517419354838709</v>
       </c>
       <c r="G133">
-        <v>0.5287082889410615</v>
+        <v>0.4584207560534191</v>
       </c>
       <c r="I133">
-        <v>0.9999984364784772</v>
+        <v>0.1214477314100128</v>
       </c>
     </row>
     <row r="134">
@@ -4372,26 +5027,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Phenylalanine</t>
+          <t>2-Hydroxyoctanoic Acid_iso2</t>
         </is>
       </c>
       <c r="C134">
-        <v>-0.1811556498546268</v>
+        <v>2.129437493158525</v>
       </c>
       <c r="D134">
-        <v>0.00709</v>
+        <v>0.173</v>
       </c>
       <c r="E134">
-        <v>0.4079739393036624</v>
+        <v>0.02384881495923532</v>
       </c>
       <c r="F134">
-        <v>0.4614003365581715</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G134">
-        <v>2.149353764816933</v>
+        <v>0.7619538968712046</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I134">
-        <v>0.9999984364784772</v>
+        <v>0.03157448741081859</v>
       </c>
     </row>
     <row r="135">
@@ -4402,26 +5062,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso2</t>
+          <t>3-Methylindole</t>
         </is>
       </c>
       <c r="C135">
-        <v>-0.1812260092042878</v>
+        <v>2.129175379740785</v>
       </c>
       <c r="D135">
-        <v>0.633</v>
+        <v>0.156</v>
       </c>
       <c r="E135">
-        <v>0.9204690428488161</v>
+        <v>0.019143474331445</v>
       </c>
       <c r="F135">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G135">
-        <v>0.1985962899826449</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I135">
-        <v>0.9999984364784772</v>
+        <v>0.02646303804640927</v>
       </c>
     </row>
     <row r="136">
@@ -4432,26 +5097,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saccharate_[M-H2O-H]-</t>
+          <t>Cystine</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.1845531823130945</v>
+        <v>2.118731925432633</v>
       </c>
       <c r="D136">
-        <v>0.233</v>
+        <v>0.156</v>
       </c>
       <c r="E136">
-        <v>0.7642642093367729</v>
+        <v>0.01951853989496198</v>
       </c>
       <c r="F136">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G136">
-        <v>0.632644078973981</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I136">
-        <v>0.9999984364784772</v>
+        <v>0.02678456569527629</v>
       </c>
     </row>
     <row r="137">
@@ -4462,26 +5132,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2-Methylbutyrylcarnitine</t>
+          <t>Caffeate_iso2</t>
         </is>
       </c>
       <c r="C137">
-        <v>-0.187466750217557</v>
+        <v>2.09487765522246</v>
       </c>
       <c r="D137">
-        <v>0.382</v>
+        <v>0.155</v>
       </c>
       <c r="E137">
-        <v>0.8349313665341779</v>
+        <v>0.02013000887466715</v>
       </c>
       <c r="F137">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G137">
-        <v>0.4179366370882913</v>
+        <v>0.8096683018297085</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I137">
-        <v>0.9999984364784772</v>
+        <v>0.02742349035099582</v>
       </c>
     </row>
     <row r="138">
@@ -4492,26 +5167,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Glycocholate</t>
+          <t>Myristic Acid_iso1</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.1888810633638803</v>
+        <v>2.06418317787897</v>
       </c>
       <c r="D138">
-        <v>0.797</v>
+        <v>0.161</v>
       </c>
       <c r="E138">
-        <v>0.958048164056319</v>
+        <v>0.02305384220110725</v>
       </c>
       <c r="F138">
-        <v>0.6899127859237955</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G138">
-        <v>0.09854167860388763</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I138">
-        <v>0.9999984364784772</v>
+        <v>0.03097959367078679</v>
       </c>
     </row>
     <row r="139">
@@ -4522,26 +5202,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.1935175757099879</v>
+        <v>2.033714288678737</v>
       </c>
       <c r="D139">
-        <v>0.142</v>
+        <v>0.0548</v>
       </c>
       <c r="E139">
-        <v>0.6854138809847952</v>
+        <v>0.002722952093635967</v>
       </c>
       <c r="F139">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G139">
-        <v>0.8477116556169435</v>
+        <v>1.261219441515631</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I139">
-        <v>0.9999984364784772</v>
+        <v>0.004702466342821286</v>
       </c>
     </row>
     <row r="140">
@@ -4552,26 +5237,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tauro-?-Muricholic Acid</t>
+          <t>Tauroursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C140">
-        <v>-0.2199707205642357</v>
+        <v>2.029239354954139</v>
       </c>
       <c r="D140">
-        <v>0.758</v>
+        <v>0.347</v>
       </c>
       <c r="E140">
-        <v>0.9408724423301897</v>
+        <v>0.1167396750056734</v>
       </c>
       <c r="F140">
-        <v>0.6817321246130508</v>
+        <v>0.3517419354838709</v>
       </c>
       <c r="G140">
-        <v>0.1203307943679465</v>
+        <v>0.4596705252091263</v>
       </c>
       <c r="I140">
-        <v>0.9999984364784772</v>
+        <v>0.1363171360314695</v>
       </c>
     </row>
     <row r="141">
@@ -4582,26 +5267,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso1</t>
+          <t>L-Arginine</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.2253219605050353</v>
+        <v>2.028756971652648</v>
       </c>
       <c r="D141">
-        <v>0.182</v>
+        <v>0.156</v>
       </c>
       <c r="E141">
-        <v>0.6812050117824491</v>
+        <v>0.02306991018037314</v>
       </c>
       <c r="F141">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G141">
-        <v>0.7399286120149252</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I141">
-        <v>0.9999984364784772</v>
+        <v>0.03097959367078679</v>
       </c>
     </row>
     <row r="142">
@@ -4612,26 +5302,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso1</t>
+          <t>Ethylmalonate</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.2287805343835562</v>
+        <v>1.965303281027653</v>
       </c>
       <c r="D142">
-        <v>0.423</v>
+        <v>0.149</v>
       </c>
       <c r="E142">
-        <v>0.8213229333635254</v>
+        <v>0.02371702768345934</v>
       </c>
       <c r="F142">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G142">
-        <v>0.3736596326249577</v>
+        <v>0.826813731587726</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I142">
-        <v>0.9999984364784772</v>
+        <v>0.03157448741081859</v>
       </c>
     </row>
     <row r="143">
@@ -4642,26 +5337,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso2</t>
+          <t>Aspartame</t>
         </is>
       </c>
       <c r="C143">
-        <v>-0.2331231084369613</v>
+        <v>1.916729731247471</v>
       </c>
       <c r="D143">
-        <v>0.493</v>
+        <v>0.159</v>
       </c>
       <c r="E143">
-        <v>0.8479993493949901</v>
+        <v>0.02946416410531416</v>
       </c>
       <c r="F143">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G143">
-        <v>0.30715308072277</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I143">
-        <v>0.9999984364784772</v>
+        <v>0.03820181277102801</v>
       </c>
     </row>
     <row r="144">
@@ -4672,26 +5372,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
+          <t>Creatinine</t>
         </is>
       </c>
       <c r="C144">
-        <v>-0.24618083158709</v>
+        <v>1.912763203308237</v>
       </c>
       <c r="D144">
-        <v>0.234</v>
+        <v>0.156</v>
       </c>
       <c r="E144">
-        <v>0.6993797205799444</v>
+        <v>0.02861794351025023</v>
       </c>
       <c r="F144">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G144">
-        <v>0.6307841425898572</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I144">
-        <v>0.9999984364784772</v>
+        <v>0.03736231513838225</v>
       </c>
     </row>
     <row r="145">
@@ -4702,26 +5407,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso4</t>
+          <t>Indole-3-Carboxaldehyde_iso1</t>
         </is>
       </c>
       <c r="C145">
-        <v>-0.2523166112315336</v>
+        <v>1.879398734869938</v>
       </c>
       <c r="D145">
-        <v>0.301</v>
+        <v>0.15</v>
       </c>
       <c r="E145">
-        <v>0.7386414331361213</v>
+        <v>0.02828439896982256</v>
       </c>
       <c r="F145">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G145">
-        <v>0.5214335044061567</v>
+        <v>0.8239087409443188</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I145">
-        <v>0.9999984364784772</v>
+        <v>0.03718508396032617</v>
       </c>
     </row>
     <row r="146">
@@ -4732,26 +5442,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Creatinine</t>
+          <t>Indoxyl Sulfate_iso1</t>
         </is>
       </c>
       <c r="C146">
-        <v>-0.2529648067682737</v>
+        <v>1.866316337791202</v>
       </c>
       <c r="D146">
-        <v>0.341</v>
+        <v>0.155</v>
       </c>
       <c r="E146">
-        <v>0.7617339316073123</v>
+        <v>0.03082498117939628</v>
       </c>
       <c r="F146">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G146">
-        <v>0.4672456210075022</v>
+        <v>0.8096683018297085</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I146">
-        <v>0.9999984364784772</v>
+        <v>0.03969244151867467</v>
       </c>
     </row>
     <row r="147">
@@ -4762,26 +5477,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso1</t>
+          <t>3-Hydroxyglutaric Acid_iso1</t>
         </is>
       </c>
       <c r="C147">
-        <v>-0.2539212592935083</v>
+        <v>1.865921526728789</v>
       </c>
       <c r="D147">
-        <v>0.138</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="E147">
-        <v>0.6047794343554813</v>
+        <v>0.00832092305302496</v>
       </c>
       <c r="F147">
-        <v>0.6690829090349851</v>
+        <v>0.140178640776699</v>
       </c>
       <c r="G147">
-        <v>0.8601209135987634</v>
+        <v>1.114638779968488</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I147">
-        <v>0.9999984364784772</v>
+        <v>0.01282240601613682</v>
       </c>
     </row>
     <row r="148">
@@ -4792,26 +5512,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
+          <t>5-Hydroxytryptophan</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.2567372448431029</v>
+        <v>1.857243825923396</v>
       </c>
       <c r="D148">
-        <v>0.408</v>
+        <v>0.0443</v>
       </c>
       <c r="E148">
-        <v>0.7944049890440492</v>
+        <v>0.003062257293799745</v>
       </c>
       <c r="F148">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G148">
-        <v>0.3893398369101201</v>
+        <v>1.35359627377693</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I148">
-        <v>0.9999984364784772</v>
+        <v>0.005186525866976145</v>
       </c>
     </row>
     <row r="149">
@@ -4822,26 +5547,31 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>3-Hydroxymyristic Acid</t>
+          <t>1-Hydroxy-2-Naphthoate</t>
         </is>
       </c>
       <c r="C149">
-        <v>-0.2571385180783282</v>
+        <v>1.845677733824515</v>
       </c>
       <c r="D149">
-        <v>0.435</v>
+        <v>0.157</v>
       </c>
       <c r="E149">
-        <v>0.8073124746115438</v>
+        <v>0.03280121211821883</v>
       </c>
       <c r="F149">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G149">
-        <v>0.3615107430453627</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I149">
-        <v>0.9999984364784772</v>
+        <v>0.0416664045826023</v>
       </c>
     </row>
     <row r="150">
@@ -4852,26 +5582,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Methyl 4-Aminobutyrate</t>
+          <t>Taurohyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C150">
-        <v>-0.2581743364188621</v>
+        <v>1.786368879360646</v>
       </c>
       <c r="D150">
-        <v>0.217</v>
+        <v>0.344</v>
       </c>
       <c r="E150">
-        <v>0.6740481671269853</v>
+        <v>0.1486354575615838</v>
       </c>
       <c r="F150">
-        <v>0.6690829090349851</v>
+        <v>0.3514782608695652</v>
       </c>
       <c r="G150">
-        <v>0.6635402661514705</v>
+        <v>0.4634415574284699</v>
       </c>
       <c r="I150">
-        <v>0.9999984364784772</v>
+        <v>0.1724905309973936</v>
       </c>
     </row>
     <row r="151">
@@ -4882,26 +5612,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Kynurenic Acid_[M+H-H2O]+</t>
+          <t>Trans-Aconitate</t>
         </is>
       </c>
       <c r="C151">
-        <v>-0.258661618194163</v>
+        <v>1.748540309280159</v>
       </c>
       <c r="D151">
-        <v>0.146</v>
+        <v>0.163</v>
       </c>
       <c r="E151">
-        <v>0.6079252155407265</v>
+        <v>0.04192550188065187</v>
       </c>
       <c r="F151">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G151">
-        <v>0.835647144215563</v>
+        <v>0.7878123955960422</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I151">
-        <v>0.9999984364784772</v>
+        <v>0.05185522601027994</v>
       </c>
     </row>
     <row r="152">
@@ -4912,26 +5647,31 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
+          <t>Methyl 4-Aminobutyrate</t>
         </is>
       </c>
       <c r="C152">
-        <v>-0.2597414870372294</v>
+        <v>1.734366998690571</v>
       </c>
       <c r="D152">
-        <v>0.545</v>
+        <v>0.152</v>
       </c>
       <c r="E152">
-        <v>0.8541442773387576</v>
+        <v>0.03810803181869128</v>
       </c>
       <c r="F152">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G152">
-        <v>0.2636034977233575</v>
+        <v>0.8181564120552275</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I152">
-        <v>0.9999984364784772</v>
+        <v>0.04808261732828162</v>
       </c>
     </row>
     <row r="153">
@@ -4942,26 +5682,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Hydroxyphenyllactate</t>
+          <t>Glycochenodeoxycholate</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.262587530826681</v>
+        <v>1.719187973000639</v>
       </c>
       <c r="D153">
-        <v>0.0365</v>
+        <v>0.34</v>
       </c>
       <c r="E153">
-        <v>0.419252859351934</v>
+        <v>0.1565035485234854</v>
       </c>
       <c r="F153">
-        <v>0.6690829090349851</v>
+        <v>0.3492896174863388</v>
       </c>
       <c r="G153">
-        <v>1.437707135543525</v>
+        <v>0.4685210829577449</v>
       </c>
       <c r="I153">
-        <v>0.9999984364784772</v>
+        <v>0.1805071602602163</v>
       </c>
     </row>
     <row r="154">
@@ -4972,26 +5712,31 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Itaconate_iso1</t>
+          <t>Indoleacetaldehyde_iso2</t>
         </is>
       </c>
       <c r="C154">
-        <v>-0.2634282919751368</v>
+        <v>1.7082137656252</v>
       </c>
       <c r="D154">
-        <v>0.442</v>
+        <v>0.149</v>
       </c>
       <c r="E154">
-        <v>0.8064810999095881</v>
+        <v>0.03869237623509138</v>
       </c>
       <c r="F154">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G154">
-        <v>0.3545777306509081</v>
+        <v>0.826813731587726</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I154">
-        <v>0.9999984364784772</v>
+        <v>0.04849444488131453</v>
       </c>
     </row>
     <row r="155">
@@ -5002,26 +5747,31 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>L-Tyrosine</t>
+          <t>Saccharate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C155">
-        <v>-0.2647093171742653</v>
+        <v>1.696864707400823</v>
       </c>
       <c r="D155">
-        <v>0.104</v>
+        <v>0.153</v>
       </c>
       <c r="E155">
-        <v>0.5492873108383229</v>
+        <v>0.04135534643862709</v>
       </c>
       <c r="F155">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G155">
-        <v>0.9829666607012196</v>
+        <v>0.8153085691824012</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I155">
-        <v>0.9999984364784772</v>
+        <v>0.05148877569842313</v>
       </c>
     </row>
     <row r="156">
@@ -5032,26 +5782,31 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2-Oxindole</t>
+          <t>Cysteine</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.265273543617777</v>
+        <v>1.689080594323507</v>
       </c>
       <c r="D156">
-        <v>0.358</v>
+        <v>0.0709</v>
       </c>
       <c r="E156">
-        <v>0.7614773144995355</v>
+        <v>0.01144587134063725</v>
       </c>
       <c r="F156">
-        <v>0.6690829090349851</v>
+        <v>0.1398941176470588</v>
       </c>
       <c r="G156">
-        <v>0.4461169733561257</v>
+        <v>1.149353764816933</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I156">
-        <v>0.9999984364784772</v>
+        <v>0.01681112353156096</v>
       </c>
     </row>
     <row r="157">
@@ -5062,26 +5817,31 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso2</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.2708275476704071</v>
+        <v>1.674022598243344</v>
       </c>
       <c r="D157">
-        <v>0.194</v>
+        <v>0.126</v>
       </c>
       <c r="E157">
-        <v>0.6413824748206257</v>
+        <v>0.03118889314654227</v>
       </c>
       <c r="F157">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G157">
-        <v>0.712198270069774</v>
+        <v>0.8996294548824371</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I157">
-        <v>0.9999984364784772</v>
+        <v>0.03988783613299283</v>
       </c>
     </row>
     <row r="158">
@@ -5092,26 +5852,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso3</t>
+          <t>3-Indoleacrylic Acid_iso1</t>
         </is>
       </c>
       <c r="C158">
-        <v>-0.2763489821178283</v>
+        <v>1.664630714857715</v>
       </c>
       <c r="D158">
-        <v>0.6899999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="E158">
-        <v>0.9025392759595717</v>
+        <v>0.04635109237664251</v>
       </c>
       <c r="F158">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G158">
-        <v>0.1611509092627447</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I158">
-        <v>0.9999984364784772</v>
+        <v>0.05658445043382332</v>
       </c>
     </row>
     <row r="159">
@@ -5122,26 +5887,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Adipate_iso2</t>
+          <t>Indoleacetaldehyde_iso1</t>
         </is>
       </c>
       <c r="C159">
-        <v>-0.2815144613848255</v>
+        <v>1.609381735992822</v>
       </c>
       <c r="D159">
-        <v>0.554</v>
+        <v>0.15</v>
       </c>
       <c r="E159">
-        <v>0.8468262065363737</v>
+        <v>0.04720807810876695</v>
       </c>
       <c r="F159">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G159">
-        <v>0.2564902352715702</v>
+        <v>0.8239087409443188</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I159">
-        <v>0.9999984364784772</v>
+        <v>0.05725883022224637</v>
       </c>
     </row>
     <row r="160">
@@ -5152,26 +5922,31 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
+          <t>Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C160">
-        <v>-0.2873024554808389</v>
+        <v>1.573487514368312</v>
       </c>
       <c r="D160">
-        <v>0.177</v>
+        <v>0.138</v>
       </c>
       <c r="E160">
-        <v>0.6080522121797829</v>
+        <v>0.04432109500441173</v>
       </c>
       <c r="F160">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G160">
-        <v>0.7520267336381934</v>
+        <v>0.8601209135987634</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I160">
-        <v>0.9999984364784772</v>
+        <v>0.0544599075871203</v>
       </c>
     </row>
     <row r="161">
@@ -5182,26 +5957,26 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proline</t>
+          <t>_13-Hydroxyoctadecadienoic Acid</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.2891038954389315</v>
+        <v>1.552412165382403</v>
       </c>
       <c r="D161">
-        <v>0.135</v>
+        <v>0.335</v>
       </c>
       <c r="E161">
-        <v>0.5605006295664164</v>
+        <v>0.183093859927174</v>
       </c>
       <c r="F161">
-        <v>0.6690829090349851</v>
+        <v>0.346043956043956</v>
       </c>
       <c r="G161">
-        <v>0.8696662315049939</v>
+        <v>0.4749551929631547</v>
       </c>
       <c r="I161">
-        <v>0.9999984364784772</v>
+        <v>0.2086160343412649</v>
       </c>
     </row>
     <row r="162">
@@ -5212,26 +5987,26 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tigloylcarnitine</t>
+          <t>Glycodeoxycholic acid</t>
         </is>
       </c>
       <c r="C162">
-        <v>-0.2893256484528022</v>
+        <v>1.48232423544426</v>
       </c>
       <c r="D162">
-        <v>0.483</v>
+        <v>0.335</v>
       </c>
       <c r="E162">
-        <v>0.8101357525012962</v>
+        <v>0.1976798517616533</v>
       </c>
       <c r="F162">
-        <v>0.6690829090349851</v>
+        <v>0.346043956043956</v>
       </c>
       <c r="G162">
-        <v>0.3160528692484879</v>
+        <v>0.4749551929631547</v>
       </c>
       <c r="I162">
-        <v>0.9999984364784772</v>
+        <v>0.2238783863324748</v>
       </c>
     </row>
     <row r="163">
@@ -5242,26 +6017,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso3</t>
+          <t>2-Methylbutyrylcarnitine</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.2901529883542416</v>
+        <v>1.41432431934618</v>
       </c>
       <c r="D163">
-        <v>0.287</v>
+        <v>0.33</v>
       </c>
       <c r="E163">
-        <v>0.6961499756700635</v>
+        <v>0.2084599147106687</v>
       </c>
       <c r="F163">
-        <v>0.6690829090349851</v>
+        <v>0.346043956043956</v>
       </c>
       <c r="G163">
-        <v>0.5421181032660077</v>
+        <v>0.4814860601221125</v>
       </c>
       <c r="I163">
-        <v>0.9999984364784772</v>
+        <v>0.2346734369197948</v>
       </c>
     </row>
     <row r="164">
@@ -5272,26 +6047,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso1</t>
+          <t>2-Oxindole</t>
         </is>
       </c>
       <c r="C164">
-        <v>-0.3207203612145961</v>
+        <v>1.393149370856156</v>
       </c>
       <c r="D164">
-        <v>0.214</v>
+        <v>0.193</v>
       </c>
       <c r="E164">
-        <v>0.6098879651018362</v>
+        <v>0.1010821834732422</v>
       </c>
       <c r="F164">
-        <v>0.6690829090349851</v>
+        <v>0.2253664596273292</v>
       </c>
       <c r="G164">
-        <v>0.6695862266508091</v>
+        <v>0.7144426909922262</v>
       </c>
       <c r="I164">
-        <v>0.9999984364784772</v>
+        <v>0.1202750031200603</v>
       </c>
     </row>
     <row r="165">
@@ -5302,26 +6077,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sphinganine</t>
+          <t>Proline</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.3221069818749306</v>
+        <v>1.373051272430792</v>
       </c>
       <c r="D165">
-        <v>0.294</v>
+        <v>0.136</v>
       </c>
       <c r="E165">
-        <v>0.6741413450221634</v>
+        <v>0.06461070734370783</v>
       </c>
       <c r="F165">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G165">
-        <v>0.5316526695878427</v>
+        <v>0.8664610916297825</v>
       </c>
       <c r="I165">
-        <v>0.9999984364784772</v>
+        <v>0.07786418577318636</v>
       </c>
     </row>
     <row r="166">
@@ -5332,26 +6107,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Isovalerylcarnitine</t>
+          <t>L-Tyrosine</t>
         </is>
       </c>
       <c r="C166">
-        <v>-0.3303470272145169</v>
+        <v>1.354122800274767</v>
       </c>
       <c r="D166">
-        <v>0.264</v>
+        <v>0.335</v>
       </c>
       <c r="E166">
-        <v>0.6440633352749324</v>
+        <v>0.2274324051249263</v>
       </c>
       <c r="F166">
-        <v>0.6690829090349851</v>
+        <v>0.346043956043956</v>
       </c>
       <c r="G166">
-        <v>0.5783960731301689</v>
+        <v>0.4749551929631547</v>
       </c>
       <c r="I166">
-        <v>0.9999984364784772</v>
+        <v>0.2545076914493223</v>
       </c>
     </row>
     <row r="167">
@@ -5362,26 +6137,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Eicosadienoic Acid</t>
+          <t>Cysteate</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.3357897387651717</v>
+        <v>1.332307697508381</v>
       </c>
       <c r="D167">
-        <v>0.825</v>
+        <v>0.167</v>
       </c>
       <c r="E167">
-        <v>0.9374456392883451</v>
+        <v>0.09213383980527462</v>
       </c>
       <c r="F167">
-        <v>0.6899127859237955</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G167">
-        <v>0.08354605145007493</v>
+        <v>0.7772835288524167</v>
       </c>
       <c r="I167">
-        <v>0.9999984364784772</v>
+        <v>0.1103258718687365</v>
       </c>
     </row>
     <row r="168">
@@ -5392,26 +6167,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>4-Coumarate</t>
+          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C168">
-        <v>-0.3446203774474152</v>
+        <v>1.201558166386191</v>
       </c>
       <c r="D168">
-        <v>0.848</v>
+        <v>0.307</v>
       </c>
       <c r="E168">
-        <v>0.9447649035344527</v>
+        <v>0.2419730099700768</v>
       </c>
       <c r="F168">
-        <v>0.6899127859237955</v>
+        <v>0.3327816091954023</v>
       </c>
       <c r="G168">
-        <v>0.07160414774328619</v>
+        <v>0.5128616245228135</v>
       </c>
       <c r="I168">
-        <v>0.9999984364784772</v>
+        <v>0.2660288062828914</v>
       </c>
     </row>
     <row r="169">
@@ -5422,26 +6197,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso2</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
         </is>
       </c>
       <c r="C169">
-        <v>-0.3450180295671067</v>
+        <v>1.196635267758403</v>
       </c>
       <c r="D169">
-        <v>0.207</v>
+        <v>0.32</v>
       </c>
       <c r="E169">
-        <v>0.5807609893651978</v>
+        <v>0.2557672958305275</v>
       </c>
       <c r="F169">
-        <v>0.6690829090349851</v>
+        <v>0.3418181818181819</v>
       </c>
       <c r="G169">
-        <v>0.6840296545430823</v>
+        <v>0.494850021680094</v>
       </c>
       <c r="I169">
-        <v>0.9999984364784772</v>
+        <v>0.2772007943787941</v>
       </c>
     </row>
     <row r="170">
@@ -5452,26 +6227,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Caffeate_iso1</t>
+          <t>3-Hydroxymyristic Acid</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.3457006805023597</v>
+        <v>1.196251018233072</v>
       </c>
       <c r="D170">
-        <v>0.265</v>
+        <v>0.311</v>
       </c>
       <c r="E170">
-        <v>0.631852497045998</v>
+        <v>0.2472942958214541</v>
       </c>
       <c r="F170">
-        <v>0.6690829090349851</v>
+        <v>0.3341028571428571</v>
       </c>
       <c r="G170">
-        <v>0.5767541260631921</v>
+        <v>0.5072396109731625</v>
       </c>
       <c r="I170">
-        <v>0.9999984364784772</v>
+        <v>0.2702984163629847</v>
       </c>
     </row>
     <row r="171">
@@ -5482,26 +6257,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Oxoproline</t>
+          <t>1-Methyladenosine</t>
         </is>
       </c>
       <c r="C171">
-        <v>-0.3657512393279909</v>
+        <v>1.179153944405437</v>
       </c>
       <c r="D171">
-        <v>0.224</v>
+        <v>0.3</v>
       </c>
       <c r="E171">
-        <v>0.5785653327431992</v>
+        <v>0.2417939694921984</v>
       </c>
       <c r="F171">
-        <v>0.6690829090349851</v>
+        <v>0.3279069767441861</v>
       </c>
       <c r="G171">
-        <v>0.6497519816658371</v>
+        <v>0.5228787452803376</v>
       </c>
       <c r="I171">
-        <v>0.9999984364784772</v>
+        <v>0.2660288062828914</v>
       </c>
     </row>
     <row r="172">
@@ -5512,26 +6287,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Mevalonate</t>
+          <t>Hydroxyphenyllactate</t>
         </is>
       </c>
       <c r="C172">
-        <v>-0.3713557662684613</v>
+        <v>1.161939351961534</v>
       </c>
       <c r="D172">
-        <v>0.0397</v>
+        <v>0.331</v>
       </c>
       <c r="E172">
-        <v>0.3017538187887526</v>
+        <v>0.2767382882193037</v>
       </c>
       <c r="F172">
-        <v>0.6690829090349851</v>
+        <v>0.346043956043956</v>
       </c>
       <c r="G172">
-        <v>1.401209493236885</v>
+        <v>0.4801720062242812</v>
       </c>
       <c r="I172">
-        <v>0.9999984364784772</v>
+        <v>0.2972959896298805</v>
       </c>
     </row>
     <row r="173">
@@ -5542,26 +6317,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2,3-Dihydroxybenzoate</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
         </is>
       </c>
       <c r="C173">
-        <v>-0.3803974293079156</v>
+        <v>1.078460690436821</v>
       </c>
       <c r="D173">
-        <v>0.474</v>
+        <v>0.129</v>
       </c>
       <c r="E173">
-        <v>0.7527779936469097</v>
+        <v>0.1098514932685553</v>
       </c>
       <c r="F173">
-        <v>0.6690829090349851</v>
+        <v>0.2045534591194968</v>
       </c>
       <c r="G173">
-        <v>0.324221658325915</v>
+        <v>0.889410289700751</v>
       </c>
       <c r="I173">
-        <v>0.9999984364784772</v>
+        <v>0.1290755045905525</v>
       </c>
     </row>
     <row r="174">
@@ -5572,26 +6347,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso1</t>
+          <t>Gluconate</t>
         </is>
       </c>
       <c r="C174">
-        <v>-0.4006490874300399</v>
+        <v>1.078088197678805</v>
       </c>
       <c r="D174">
-        <v>0.183</v>
+        <v>0.308</v>
       </c>
       <c r="E174">
-        <v>0.5064093343310092</v>
+        <v>0.2809393438375727</v>
       </c>
       <c r="F174">
-        <v>0.6690829090349851</v>
+        <v>0.3327816091954023</v>
       </c>
       <c r="G174">
-        <v>0.7375489102695706</v>
+        <v>0.5114492834995558</v>
       </c>
       <c r="I174">
-        <v>0.9999984364784772</v>
+        <v>0.3000942990992254</v>
       </c>
     </row>
     <row r="175">
@@ -5602,26 +6377,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Heptadecanoate</t>
+          <t>Indole-3-Acetamide_[M+Na]+</t>
         </is>
       </c>
       <c r="C175">
-        <v>-0.4194547867726234</v>
+        <v>1.049945515966977</v>
       </c>
       <c r="D175">
-        <v>0.674</v>
+        <v>0.198</v>
       </c>
       <c r="E175">
-        <v>0.8474821768203328</v>
+        <v>0.1826151356785131</v>
       </c>
       <c r="F175">
-        <v>0.6690829090349851</v>
+        <v>0.2283680981595092</v>
       </c>
       <c r="G175">
-        <v>0.1713401034646801</v>
+        <v>0.7033348097384688</v>
       </c>
       <c r="I175">
-        <v>0.9999984364784772</v>
+        <v>0.2086160343412649</v>
       </c>
     </row>
     <row r="176">
@@ -5632,26 +6407,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ascorbate</t>
+          <t>Caffeate_iso1</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.422221673914264</v>
+        <v>1.035883086471565</v>
       </c>
       <c r="D176">
-        <v>0.216</v>
+        <v>0.3</v>
       </c>
       <c r="E176">
-        <v>0.5235907298027431</v>
+        <v>0.287315298679503</v>
       </c>
       <c r="F176">
-        <v>0.6690829090349851</v>
+        <v>0.3279069767441861</v>
       </c>
       <c r="G176">
-        <v>0.6655462488490691</v>
+        <v>0.5228787452803376</v>
       </c>
       <c r="I176">
-        <v>0.9999984364784772</v>
+        <v>0.3051710517047828</v>
       </c>
     </row>
     <row r="177">
@@ -5662,26 +6437,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso2</t>
+          <t>3-Hydroxyglutaric Acid_iso2</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.4223665002607562</v>
+        <v>0.9899409298312737</v>
       </c>
       <c r="D177">
-        <v>0.581</v>
+        <v>0.296</v>
       </c>
       <c r="E177">
-        <v>0.7950526662728796</v>
+        <v>0.2996470626782564</v>
       </c>
       <c r="F177">
-        <v>0.6690829090349851</v>
+        <v>0.3279069767441861</v>
       </c>
       <c r="G177">
-        <v>0.2358238676096693</v>
+        <v>0.5287082889410615</v>
       </c>
       <c r="I177">
-        <v>0.9999984364784772</v>
+        <v>0.3112356231133271</v>
       </c>
     </row>
     <row r="178">
@@ -5692,26 +6467,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso3</t>
+          <t>L-Carnitine</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.4333742850832041</v>
+        <v>0.9548249402622276</v>
       </c>
       <c r="D178">
-        <v>0.09959999999999999</v>
+        <v>0.325</v>
       </c>
       <c r="E178">
-        <v>0.3680199457305289</v>
+        <v>0.3419275223283024</v>
       </c>
       <c r="F178">
-        <v>0.6690829090349851</v>
+        <v>0.3451977401129944</v>
       </c>
       <c r="G178">
-        <v>1.001740661576301</v>
+        <v>0.4881166390211256</v>
       </c>
       <c r="I178">
-        <v>0.9999984364784772</v>
+        <v>0.3474722929606533</v>
       </c>
     </row>
     <row r="179">
@@ -5722,26 +6497,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso2</t>
+          <t>Sphinganine</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.4383281928953843</v>
+        <v>0.933613669697843</v>
       </c>
       <c r="D179">
-        <v>0.45</v>
+        <v>0.266</v>
       </c>
       <c r="E179">
-        <v>0.7046821453500878</v>
+        <v>0.2904434817200264</v>
       </c>
       <c r="F179">
-        <v>0.6690829090349851</v>
+        <v>0.3012530120481928</v>
       </c>
       <c r="G179">
-        <v>0.3467874862246563</v>
+        <v>0.575118363368933</v>
       </c>
       <c r="I179">
-        <v>0.9999984364784772</v>
+        <v>0.3067605312548594</v>
       </c>
     </row>
     <row r="180">
@@ -5752,26 +6527,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>L-Carnitine</t>
+          <t>2-Hydroxyphenylacetate_iso3</t>
         </is>
       </c>
       <c r="C180">
-        <v>-0.4441894866532908</v>
+        <v>0.9089875644588821</v>
       </c>
       <c r="D180">
-        <v>0.0103</v>
+        <v>0.298</v>
       </c>
       <c r="E180">
-        <v>0.1310156533535094</v>
+        <v>0.3327125037100806</v>
       </c>
       <c r="F180">
-        <v>0.4614003365581715</v>
+        <v>0.3279069767441861</v>
       </c>
       <c r="G180">
-        <v>1.987162775294828</v>
+        <v>0.5257837359237448</v>
       </c>
       <c r="I180">
-        <v>0.9999984364784772</v>
+        <v>0.3418030092759298</v>
       </c>
     </row>
     <row r="181">
@@ -5782,26 +6557,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cysteate</t>
+          <t>Kynurenic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.4644794395920964</v>
+        <v>0.9005656692744469</v>
       </c>
       <c r="D181">
-        <v>0.103</v>
+        <v>0.259</v>
       </c>
       <c r="E181">
-        <v>0.3479230383937322</v>
+        <v>0.2962360507927052</v>
       </c>
       <c r="F181">
-        <v>0.6690829090349851</v>
+        <v>0.2951030303030303</v>
       </c>
       <c r="G181">
-        <v>0.9871627752948278</v>
+        <v>0.5867002359187482</v>
       </c>
       <c r="I181">
-        <v>0.9999984364784772</v>
+        <v>0.3111306008325619</v>
       </c>
     </row>
     <row r="182">
@@ -5812,26 +6587,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Glycochenodeoxycholate</t>
+          <t>Histidine</t>
         </is>
       </c>
       <c r="C182">
-        <v>-0.4861072339915294</v>
+        <v>0.8978165118176316</v>
       </c>
       <c r="D182">
-        <v>0.488</v>
+        <v>0.196</v>
       </c>
       <c r="E182">
-        <v>0.7055675868970565</v>
+        <v>0.231513230305364</v>
       </c>
       <c r="F182">
-        <v>0.6690829090349851</v>
+        <v>0.2274567901234568</v>
       </c>
       <c r="G182">
-        <v>0.3115801779972894</v>
+        <v>0.707743928643524</v>
       </c>
       <c r="I182">
-        <v>0.9999984364784772</v>
+        <v>0.2575413449550795</v>
       </c>
     </row>
     <row r="183">
@@ -5842,26 +6617,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso2</t>
+          <t>Oxoproline</t>
         </is>
       </c>
       <c r="C183">
-        <v>-0.5121068573673908</v>
+        <v>0.8823570541915084</v>
       </c>
       <c r="D183">
-        <v>0.363</v>
+        <v>0.214</v>
       </c>
       <c r="E183">
-        <v>0.5951482553194491</v>
+        <v>0.2565581820314371</v>
       </c>
       <c r="F183">
-        <v>0.6690829090349851</v>
+        <v>0.2453170731707317</v>
       </c>
       <c r="G183">
-        <v>0.4400933749638875</v>
+        <v>0.6695862266508091</v>
       </c>
       <c r="I183">
-        <v>0.9999984364784772</v>
+        <v>0.2772007943787941</v>
       </c>
     </row>
     <row r="184">
@@ -5872,26 +6647,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Taurohyodeoxycholic Acid</t>
+          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
         </is>
       </c>
       <c r="C184">
-        <v>-0.7050480713007409</v>
+        <v>0.8793368391287993</v>
       </c>
       <c r="D184">
-        <v>0.405</v>
+        <v>0.292</v>
       </c>
       <c r="E184">
-        <v>0.5287336138307174</v>
+        <v>0.3387594713424961</v>
       </c>
       <c r="F184">
-        <v>0.6690829090349851</v>
+        <v>0.3279069767441861</v>
       </c>
       <c r="G184">
-        <v>0.3925449767853314</v>
+        <v>0.5346171485515817</v>
       </c>
       <c r="I184">
-        <v>0.9999984364784772</v>
+        <v>0.3461238076760286</v>
       </c>
     </row>
     <row r="185">
@@ -5902,26 +6677,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Glycodeoxycholic acid</t>
+          <t>Phenylpyruvate</t>
         </is>
       </c>
       <c r="C185">
-        <v>-0.8300521843906412</v>
+        <v>0.7841636391430091</v>
       </c>
       <c r="D185">
-        <v>0.277</v>
+        <v>0.491</v>
       </c>
       <c r="E185">
-        <v>0.3445316424122622</v>
+        <v>0.572476071531776</v>
       </c>
       <c r="F185">
-        <v>0.6690829090349851</v>
+        <v>0.4936256684491978</v>
       </c>
       <c r="G185">
-        <v>0.5575202309355514</v>
+        <v>0.3089185078770315</v>
       </c>
       <c r="I185">
-        <v>0.9999984364784772</v>
+        <v>0.5755374408982562</v>
       </c>
     </row>
     <row r="186">
@@ -5936,22 +6711,22 @@
         </is>
       </c>
       <c r="C186">
-        <v>-0.8948992261375807</v>
+        <v>0.7740335941911241</v>
       </c>
       <c r="D186">
-        <v>0.125</v>
+        <v>0.296</v>
       </c>
       <c r="E186">
-        <v>0.1555340459288645</v>
+        <v>0.3897283715528527</v>
       </c>
       <c r="F186">
-        <v>0.6690829090349851</v>
+        <v>0.3279069767441861</v>
       </c>
       <c r="G186">
-        <v>0.9030899869919435</v>
+        <v>0.5287082889410615</v>
       </c>
       <c r="I186">
-        <v>0.9999984364784772</v>
+        <v>0.3939189992039586</v>
       </c>
     </row>
     <row r="187">
@@ -5962,26 +6737,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Deoxyuridine-Monophosphate</t>
+          <t>2,3-Dihydroxybenzoate</t>
         </is>
       </c>
       <c r="C187">
-        <v>-1.030842610731475</v>
+        <v>0.5464526910161425</v>
       </c>
       <c r="D187">
-        <v>0.108</v>
+        <v>0.751</v>
       </c>
       <c r="E187">
-        <v>0.1008351667072504</v>
+        <v>0.8551515926941489</v>
       </c>
       <c r="F187">
-        <v>0.6690829090349851</v>
+        <v>0.7509999999999999</v>
       </c>
       <c r="G187">
-        <v>0.9665762445130504</v>
+        <v>0.1243600629958316</v>
       </c>
       <c r="I187">
-        <v>0.9999984364784772</v>
+        <v>0.855151592694149</v>
       </c>
     </row>
     <row r="188">
@@ -5992,26 +6767,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ferulate</t>
+          <t>Mevalonate</t>
         </is>
       </c>
       <c r="C188">
-        <v>-1.248434147177042</v>
+        <v>0.1322851542348568</v>
       </c>
       <c r="D188">
-        <v>0.302</v>
+        <v>0.000108</v>
       </c>
       <c r="E188">
-        <v>0.2242967140930695</v>
+        <v>0.2987313831584831</v>
       </c>
       <c r="F188">
-        <v>0.6690829090349851</v>
+        <v>0.006768</v>
       </c>
       <c r="G188">
-        <v>0.5199930570428494</v>
+        <v>3.96657624451305</v>
       </c>
       <c r="I188">
-        <v>0.9999984364784772</v>
+        <v>0.3112356231133271</v>
       </c>
     </row>
     <row r="189">
@@ -6022,26 +6797,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso1</t>
+          <t>Phenylalanine</t>
         </is>
       </c>
       <c r="C189">
-        <v>-1.502684172430463</v>
+        <v>0.07850337136423323</v>
       </c>
       <c r="D189">
-        <v>0.231</v>
+        <v>2.45e-07</v>
       </c>
       <c r="E189">
-        <v>0.110588456008689</v>
+        <v>0.302710335973865</v>
       </c>
       <c r="F189">
-        <v>0.6690829090349851</v>
+        <v>4.606e-05</v>
       </c>
       <c r="G189">
-        <v>0.6363880201078557</v>
+        <v>6.610833915635467</v>
       </c>
       <c r="I189">
-        <v>0.9999984364784772</v>
+        <v>0.312689797599377</v>
       </c>
     </row>
   </sheetData>
